--- a/last_portfolio_weight_risk.xlsx
+++ b/last_portfolio_weight_risk.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\ficc_quant\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544F39E3-4BC4-4C4A-8FD4-CD45FD2F2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -67,15 +73,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,8 +89,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -128,20 +141,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -183,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +236,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +288,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +481,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R6:R7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,60 +540,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>41640</v>
       </c>
       <c r="B2">
-        <v>0.2286085306542467</v>
+        <v>0.22860853065424669</v>
       </c>
       <c r="C2">
-        <v>0.03353366377232901</v>
+        <v>3.3533663772329012E-2</v>
       </c>
       <c r="D2">
-        <v>0.1020821969967051</v>
+        <v>0.10208219699670509</v>
       </c>
       <c r="E2">
-        <v>0.006748930318916674</v>
+        <v>6.7489303189166737E-3</v>
       </c>
       <c r="F2">
-        <v>0.004170070314739084</v>
+        <v>4.1700703147390843E-3</v>
       </c>
       <c r="G2">
-        <v>0.007665687166582552</v>
+        <v>7.6656871665825516E-3</v>
       </c>
       <c r="H2">
-        <v>0.0230054894552955</v>
+        <v>2.30054894552955E-2</v>
       </c>
       <c r="I2">
-        <v>0.09402568351350006</v>
+        <v>9.4025683513500061E-2</v>
       </c>
       <c r="J2">
-        <v>0.02200878480910662</v>
+        <v>2.2008784809106618E-2</v>
       </c>
       <c r="K2">
         <v>0.1448663746905218</v>
       </c>
       <c r="L2">
-        <v>0.004459425551566121</v>
+        <v>4.4594255515661213E-3</v>
       </c>
       <c r="M2">
-        <v>0.001218439153884506</v>
+        <v>1.218439153884506E-3</v>
       </c>
       <c r="N2">
-        <v>0.002737965918950484</v>
+        <v>2.737965918950484E-3</v>
       </c>
       <c r="O2">
-        <v>0.03224973416566117</v>
+        <v>3.2249734165661167E-2</v>
       </c>
       <c r="P2">
-        <v>0.1958182135069577</v>
+        <v>0.19581821350695769</v>
       </c>
       <c r="Q2">
-        <v>0.09680081001103716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.6800810011037158E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>41671</v>
       </c>
@@ -542,52 +601,52 @@
         <v>0.2289731261443009</v>
       </c>
       <c r="C3">
-        <v>0.03347335308057234</v>
+        <v>3.3473353080572338E-2</v>
       </c>
       <c r="D3">
         <v>0.101905255126608</v>
       </c>
       <c r="E3">
-        <v>0.006802558870482377</v>
+        <v>6.8025588704823774E-3</v>
       </c>
       <c r="F3">
-        <v>0.004195983800507864</v>
+        <v>4.1959838005078643E-3</v>
       </c>
       <c r="G3">
-        <v>0.007716004903605404</v>
+        <v>7.7160049036054043E-3</v>
       </c>
       <c r="H3">
-        <v>0.0230543715278248</v>
+        <v>2.3054371527824798E-2</v>
       </c>
       <c r="I3">
-        <v>0.09360968910475986</v>
+        <v>9.3609689104759863E-2</v>
       </c>
       <c r="J3">
-        <v>0.02194482070270729</v>
+        <v>2.1944820702707288E-2</v>
       </c>
       <c r="K3">
         <v>0.1447520376134693</v>
       </c>
       <c r="L3">
-        <v>0.004451606542961827</v>
+        <v>4.4516065429618269E-3</v>
       </c>
       <c r="M3">
-        <v>0.001218909448109306</v>
+        <v>1.218909448109306E-3</v>
       </c>
       <c r="N3">
-        <v>0.002727070799034661</v>
+        <v>2.7270707990346612E-3</v>
       </c>
       <c r="O3">
-        <v>0.03194272400940649</v>
+        <v>3.1942724009406488E-2</v>
       </c>
       <c r="P3">
-        <v>0.1964846042071708</v>
+        <v>0.19648460420717079</v>
       </c>
       <c r="Q3">
-        <v>0.09674788411847871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.6747884118478705E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>41699</v>
       </c>
@@ -595,211 +654,211 @@
         <v>0.2297806195343168</v>
       </c>
       <c r="C4">
-        <v>0.03331335774102558</v>
+        <v>3.3313357741025583E-2</v>
       </c>
       <c r="D4">
         <v>0.1015254584669949</v>
       </c>
       <c r="E4">
-        <v>0.006773849169014987</v>
+        <v>6.7738491690149871E-3</v>
       </c>
       <c r="F4">
-        <v>0.004174234334007624</v>
+        <v>4.1742343340076243E-3</v>
       </c>
       <c r="G4">
-        <v>0.007697631892610093</v>
+        <v>7.6976318926100934E-3</v>
       </c>
       <c r="H4">
-        <v>0.02302550063646644</v>
+        <v>2.3025500636466439E-2</v>
       </c>
       <c r="I4">
-        <v>0.09316760017592134</v>
+        <v>9.3167600175921336E-2</v>
       </c>
       <c r="J4">
-        <v>0.02191246763810939</v>
+        <v>2.191246763810939E-2</v>
       </c>
       <c r="K4">
-        <v>0.1448733955603</v>
+        <v>0.14487339556029999</v>
       </c>
       <c r="L4">
-        <v>0.004502066596299002</v>
+        <v>4.5020665962990022E-3</v>
       </c>
       <c r="M4">
-        <v>0.001231310318648676</v>
+        <v>1.231310318648676E-3</v>
       </c>
       <c r="N4">
-        <v>0.0027562996210535</v>
+        <v>2.7562996210535001E-3</v>
       </c>
       <c r="O4">
-        <v>0.03214394179915187</v>
+        <v>3.2143941799151872E-2</v>
       </c>
       <c r="P4">
-        <v>0.1964741710003267</v>
+        <v>0.19647417100032669</v>
       </c>
       <c r="Q4">
-        <v>0.09664809551575315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.6648095515753152E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>41730</v>
       </c>
       <c r="B5">
-        <v>0.2321366678688309</v>
+        <v>0.23213666786883089</v>
       </c>
       <c r="C5">
-        <v>0.03291302714316319</v>
+        <v>3.2913027143163187E-2</v>
       </c>
       <c r="D5">
-        <v>0.1004307502185152</v>
+        <v>0.10043075021851521</v>
       </c>
       <c r="E5">
-        <v>0.006688479245109099</v>
+        <v>6.6884792451090986E-3</v>
       </c>
       <c r="F5">
-        <v>0.004142544357224794</v>
+        <v>4.1425443572247938E-3</v>
       </c>
       <c r="G5">
-        <v>0.007593941785954603</v>
+        <v>7.5939417859546034E-3</v>
       </c>
       <c r="H5">
-        <v>0.0228160995190662</v>
+        <v>2.2816099519066199E-2</v>
       </c>
       <c r="I5">
-        <v>0.09210271245432367</v>
+        <v>9.2102712454323665E-2</v>
       </c>
       <c r="J5">
-        <v>0.02203581463708108</v>
+        <v>2.203581463708108E-2</v>
       </c>
       <c r="K5">
-        <v>0.1454526469535649</v>
+        <v>0.14545264695356491</v>
       </c>
       <c r="L5">
-        <v>0.004512889421973929</v>
+        <v>4.5128894219739289E-3</v>
       </c>
       <c r="M5">
-        <v>0.00123606598908132</v>
+        <v>1.2360659890813201E-3</v>
       </c>
       <c r="N5">
-        <v>0.002751816000796553</v>
+        <v>2.7518160007965532E-3</v>
       </c>
       <c r="O5">
-        <v>0.03194007468631525</v>
+        <v>3.1940074686315247E-2</v>
       </c>
       <c r="P5">
-        <v>0.1977902543582747</v>
+        <v>0.19779025435827469</v>
       </c>
       <c r="Q5">
-        <v>0.09545621536072468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.5456215360724683E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>41760</v>
       </c>
       <c r="B6">
-        <v>0.2363313080983651</v>
+        <v>0.23633130809836511</v>
       </c>
       <c r="C6">
-        <v>0.02959022197765792</v>
+        <v>2.959022197765792E-2</v>
       </c>
       <c r="D6">
-        <v>0.09037962078834343</v>
+        <v>9.0379620788343426E-2</v>
       </c>
       <c r="E6">
-        <v>0.006016743852603573</v>
+        <v>6.0167438526035734E-3</v>
       </c>
       <c r="F6">
-        <v>0.003727341409708867</v>
+        <v>3.727341409708867E-3</v>
       </c>
       <c r="G6">
-        <v>0.006830146896173579</v>
+        <v>6.8301468961735794E-3</v>
       </c>
       <c r="H6">
-        <v>0.02051613900069643</v>
+        <v>2.0516139000696432E-2</v>
       </c>
       <c r="I6">
-        <v>0.0828794716068189</v>
+        <v>8.2879471606818897E-2</v>
       </c>
       <c r="J6">
-        <v>0.02304996994438606</v>
+        <v>2.3049969944386059E-2</v>
       </c>
       <c r="K6">
-        <v>0.1525316501372823</v>
+        <v>0.15253165013728229</v>
       </c>
       <c r="L6">
-        <v>0.004740415466154247</v>
+        <v>4.7404154661542467E-3</v>
       </c>
       <c r="M6">
-        <v>0.001298661908067691</v>
+        <v>1.2986619080676909E-3</v>
       </c>
       <c r="N6">
-        <v>0.002887540354640289</v>
+        <v>2.887540354640289E-3</v>
       </c>
       <c r="O6">
-        <v>0.03347549778098838</v>
+        <v>3.3475497780988378E-2</v>
       </c>
       <c r="P6">
         <v>0.2075956636338317</v>
       </c>
       <c r="Q6">
-        <v>0.09814960714428154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.8149607144281545E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>41791</v>
       </c>
       <c r="B7">
-        <v>0.2375937203947094</v>
+        <v>0.23759372039470941</v>
       </c>
       <c r="C7">
-        <v>0.02914954364039405</v>
+        <v>2.914954364039405E-2</v>
       </c>
       <c r="D7">
-        <v>0.08902688474294242</v>
+        <v>8.9026884742942416E-2</v>
       </c>
       <c r="E7">
-        <v>0.005923739835440813</v>
+        <v>5.9237398354408128E-3</v>
       </c>
       <c r="F7">
-        <v>0.003659931475377733</v>
+        <v>3.6599314753777328E-3</v>
       </c>
       <c r="G7">
-        <v>0.006733947754851095</v>
+        <v>6.7339477548510954E-3</v>
       </c>
       <c r="H7">
-        <v>0.02025105792496533</v>
+        <v>2.0251057924965329E-2</v>
       </c>
       <c r="I7">
-        <v>0.08160775139270147</v>
+        <v>8.1607751392701475E-2</v>
       </c>
       <c r="J7">
-        <v>0.02291895262879122</v>
+        <v>2.291895262879122E-2</v>
       </c>
       <c r="K7">
         <v>0.1534594142942414</v>
       </c>
       <c r="L7">
-        <v>0.004774436731437248</v>
+        <v>4.7744367314372484E-3</v>
       </c>
       <c r="M7">
-        <v>0.001306777205911677</v>
+        <v>1.3067772059116771E-3</v>
       </c>
       <c r="N7">
-        <v>0.00290657522787073</v>
+        <v>2.9065752278707299E-3</v>
       </c>
       <c r="O7">
-        <v>0.03369843321361017</v>
+        <v>3.3698433213610171E-2</v>
       </c>
       <c r="P7">
-        <v>0.208583803129084</v>
+        <v>0.20858380312908401</v>
       </c>
       <c r="Q7">
-        <v>0.09840503040767111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.840503040767111E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>41821</v>
       </c>
@@ -807,317 +866,317 @@
         <v>0.239472892575577</v>
       </c>
       <c r="C8">
-        <v>0.02888502969978109</v>
+        <v>2.888502969978109E-2</v>
       </c>
       <c r="D8">
-        <v>0.088278375341621</v>
+        <v>8.8278375341621002E-2</v>
       </c>
       <c r="E8">
-        <v>0.005848563667904303</v>
+        <v>5.8485636679043032E-3</v>
       </c>
       <c r="F8">
-        <v>0.003621093865022536</v>
+        <v>3.6210938650225359E-3</v>
       </c>
       <c r="G8">
-        <v>0.006659544130845003</v>
+        <v>6.6595441308450031E-3</v>
       </c>
       <c r="H8">
-        <v>0.02004075340134234</v>
+        <v>2.0040753401342339E-2</v>
       </c>
       <c r="I8">
-        <v>0.08099344997628792</v>
+        <v>8.0993449976287921E-2</v>
       </c>
       <c r="J8">
-        <v>0.02277946010429053</v>
+        <v>2.2779460104290529E-2</v>
       </c>
       <c r="K8">
-        <v>0.1530673035402497</v>
+        <v>0.15306730354024969</v>
       </c>
       <c r="L8">
-        <v>0.004788150884725079</v>
+        <v>4.7881508847250794E-3</v>
       </c>
       <c r="M8">
-        <v>0.001310751437254843</v>
+        <v>1.310751437254843E-3</v>
       </c>
       <c r="N8">
-        <v>0.002913802684125205</v>
+        <v>2.9138026841252049E-3</v>
       </c>
       <c r="O8">
-        <v>0.0336679899454431</v>
+        <v>3.3667989945443101E-2</v>
       </c>
       <c r="P8">
         <v>0.2086807504967349</v>
       </c>
       <c r="Q8">
-        <v>0.09899208824879556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.8992088248795559E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>41852</v>
       </c>
       <c r="B9">
-        <v>0.2475692136008252</v>
+        <v>0.24756921360082521</v>
       </c>
       <c r="C9">
-        <v>0.02628609736789987</v>
+        <v>2.6286097367899872E-2</v>
       </c>
       <c r="D9">
-        <v>0.0801420260192679</v>
+        <v>8.0142026019267898E-2</v>
       </c>
       <c r="E9">
-        <v>0.005294123423172385</v>
+        <v>5.2941234231723847E-3</v>
       </c>
       <c r="F9">
-        <v>0.003272733017354243</v>
+        <v>3.2727330173542429E-3</v>
       </c>
       <c r="G9">
-        <v>0.006039605853053348</v>
+        <v>6.0396058530533484E-3</v>
       </c>
       <c r="H9">
-        <v>0.0182024552035813</v>
+        <v>1.82024552035813E-2</v>
       </c>
       <c r="I9">
-        <v>0.0736192058900066</v>
+        <v>7.3619205890006603E-2</v>
       </c>
       <c r="J9">
-        <v>0.02305590228982612</v>
+        <v>2.3055902289826121E-2</v>
       </c>
       <c r="K9">
-        <v>0.1565359855826403</v>
+        <v>0.15653598558264031</v>
       </c>
       <c r="L9">
-        <v>0.004903680309335971</v>
+        <v>4.9036803093359706E-3</v>
       </c>
       <c r="M9">
-        <v>0.001340404559161267</v>
+        <v>1.3404045591612671E-3</v>
       </c>
       <c r="N9">
-        <v>0.002981054380303825</v>
+        <v>2.9810543803038248E-3</v>
       </c>
       <c r="O9">
-        <v>0.03441091838240964</v>
+        <v>3.4410918382409637E-2</v>
       </c>
       <c r="P9">
         <v>0.2139894625288126</v>
       </c>
       <c r="Q9">
-        <v>0.1023571315923495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.10235713159234951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>41883</v>
       </c>
       <c r="B10">
-        <v>0.2474896650680274</v>
+        <v>0.24748966506802739</v>
       </c>
       <c r="C10">
-        <v>0.02636290109887239</v>
+        <v>2.6362901098872391E-2</v>
       </c>
       <c r="D10">
-        <v>0.07966863478864053</v>
+        <v>7.966863478864053E-2</v>
       </c>
       <c r="E10">
-        <v>0.005288819149137145</v>
+        <v>5.2888191491371446E-3</v>
       </c>
       <c r="F10">
-        <v>0.003271135114506825</v>
+        <v>3.2711351145068251E-3</v>
       </c>
       <c r="G10">
-        <v>0.006034031749517669</v>
+        <v>6.0340317495176689E-3</v>
       </c>
       <c r="H10">
-        <v>0.0181745280027069</v>
+        <v>1.8174528002706899E-2</v>
       </c>
       <c r="I10">
-        <v>0.07326302187164437</v>
+        <v>7.3263021871644365E-2</v>
       </c>
       <c r="J10">
-        <v>0.02306648857770974</v>
+        <v>2.3066488577709741E-2</v>
       </c>
       <c r="K10">
         <v>0.1570207821453557</v>
       </c>
       <c r="L10">
-        <v>0.004923554021418419</v>
+        <v>4.9235540214184192E-3</v>
       </c>
       <c r="M10">
-        <v>0.001346600304461742</v>
+        <v>1.3466003044617419E-3</v>
       </c>
       <c r="N10">
-        <v>0.002988052593370341</v>
+        <v>2.9880525933703409E-3</v>
       </c>
       <c r="O10">
-        <v>0.03438889129138481</v>
+        <v>3.438889129138481E-2</v>
       </c>
       <c r="P10">
-        <v>0.2141576081915222</v>
+        <v>0.21415760819152219</v>
       </c>
       <c r="Q10">
-        <v>0.102555286031724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.10255528603172399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>41913</v>
       </c>
       <c r="B11">
-        <v>0.2484669904338893</v>
+        <v>0.24846699043388931</v>
       </c>
       <c r="C11">
-        <v>0.02637843053528538</v>
+        <v>2.637843053528538E-2</v>
       </c>
       <c r="D11">
-        <v>0.07984145456509387</v>
+        <v>7.9841454565093867E-2</v>
       </c>
       <c r="E11">
-        <v>0.005299434689705669</v>
+        <v>5.2994346897056689E-3</v>
       </c>
       <c r="F11">
-        <v>0.003276466150174584</v>
+        <v>3.2764661501745842E-3</v>
       </c>
       <c r="G11">
-        <v>0.006046438763690616</v>
+        <v>6.0464387636906163E-3</v>
       </c>
       <c r="H11">
-        <v>0.01820172361162575</v>
+        <v>1.820172361162575E-2</v>
       </c>
       <c r="I11">
-        <v>0.07339582188518264</v>
+        <v>7.3395821885182636E-2</v>
       </c>
       <c r="J11">
-        <v>0.02299095184190666</v>
+        <v>2.2990951841906661E-2</v>
       </c>
       <c r="K11">
         <v>0.1562372925049452</v>
       </c>
       <c r="L11">
-        <v>0.004948469929477266</v>
+        <v>4.9484699294772656E-3</v>
       </c>
       <c r="M11">
-        <v>0.001351135879570568</v>
+        <v>1.3511358795705679E-3</v>
       </c>
       <c r="N11">
-        <v>0.003001636289908888</v>
+        <v>3.0016362899088879E-3</v>
       </c>
       <c r="O11">
-        <v>0.03446024324180063</v>
+        <v>3.446024324180063E-2</v>
       </c>
       <c r="P11">
-        <v>0.213981657991807</v>
+        <v>0.21398165799180699</v>
       </c>
       <c r="Q11">
         <v>0.1021218516859361</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>41944</v>
       </c>
       <c r="B12">
-        <v>0.2491362361108521</v>
+        <v>0.24913623611085209</v>
       </c>
       <c r="C12">
-        <v>0.02673920247334751</v>
+        <v>2.6739202473347511E-2</v>
       </c>
       <c r="D12">
-        <v>0.07871209771315452</v>
+        <v>7.8712097713154516E-2</v>
       </c>
       <c r="E12">
-        <v>0.005294165693947567</v>
+        <v>5.2941656939475669E-3</v>
       </c>
       <c r="F12">
-        <v>0.003258616547827407</v>
+        <v>3.2586165478274069E-3</v>
       </c>
       <c r="G12">
-        <v>0.0060269895375331</v>
+        <v>6.0269895375330996E-3</v>
       </c>
       <c r="H12">
-        <v>0.0179285169898393</v>
+        <v>1.7928516989839299E-2</v>
       </c>
       <c r="I12">
-        <v>0.07294301141735472</v>
+        <v>7.2943011417354722E-2</v>
       </c>
       <c r="J12">
-        <v>0.02299725746534528</v>
+        <v>2.299725746534528E-2</v>
       </c>
       <c r="K12">
         <v>0.156278014021906</v>
       </c>
       <c r="L12">
-        <v>0.004987261460544298</v>
+        <v>4.9872614605442978E-3</v>
       </c>
       <c r="M12">
-        <v>0.001369281412821508</v>
+        <v>1.3692814128215081E-3</v>
       </c>
       <c r="N12">
-        <v>0.003037724742090141</v>
+        <v>3.037724742090141E-3</v>
       </c>
       <c r="O12">
-        <v>0.03394619998645063</v>
+        <v>3.3946199986450633E-2</v>
       </c>
       <c r="P12">
-        <v>0.2152263814246896</v>
+        <v>0.21522638142468961</v>
       </c>
       <c r="Q12">
-        <v>0.1021190430022964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.10211904300229641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>41974</v>
       </c>
       <c r="B13">
-        <v>0.2482654099614169</v>
+        <v>0.24826540996141691</v>
       </c>
       <c r="C13">
-        <v>0.02669258126090444</v>
+        <v>2.669258126090444E-2</v>
       </c>
       <c r="D13">
-        <v>0.0786401384455091</v>
+        <v>7.86401384455091E-2</v>
       </c>
       <c r="E13">
-        <v>0.005261558916409833</v>
+        <v>5.2615589164098329E-3</v>
       </c>
       <c r="F13">
-        <v>0.003251461028033925</v>
+        <v>3.2514610280339252E-3</v>
       </c>
       <c r="G13">
-        <v>0.006013956856363752</v>
+        <v>6.0139568563637516E-3</v>
       </c>
       <c r="H13">
-        <v>0.01786528982090315</v>
+        <v>1.786528982090315E-2</v>
       </c>
       <c r="I13">
-        <v>0.07294045308470289</v>
+        <v>7.2940453084702886E-2</v>
       </c>
       <c r="J13">
-        <v>0.02298549379482094</v>
+        <v>2.2985493794820941E-2</v>
       </c>
       <c r="K13">
-        <v>0.1565763909989366</v>
+        <v>0.15657639099893661</v>
       </c>
       <c r="L13">
-        <v>0.005015310184237885</v>
+        <v>5.0153101842378848E-3</v>
       </c>
       <c r="M13">
-        <v>0.001377334687340078</v>
+        <v>1.3773346873400781E-3</v>
       </c>
       <c r="N13">
-        <v>0.003053084586551126</v>
+        <v>3.053084586551126E-3</v>
       </c>
       <c r="O13">
-        <v>0.03404752534482777</v>
+        <v>3.4047525344827773E-2</v>
       </c>
       <c r="P13">
-        <v>0.2161280097632423</v>
+        <v>0.21612800976324231</v>
       </c>
       <c r="Q13">
         <v>0.1018860012657989</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>42005</v>
       </c>
@@ -1125,105 +1184,105 @@
         <v>0.2489575319463678</v>
       </c>
       <c r="C14">
-        <v>0.02710983070190025</v>
+        <v>2.7109830701900251E-2</v>
       </c>
       <c r="D14">
-        <v>0.07838037427910716</v>
+        <v>7.8380374279107157E-2</v>
       </c>
       <c r="E14">
-        <v>0.005318740100197996</v>
+        <v>5.3187401001979964E-3</v>
       </c>
       <c r="F14">
-        <v>0.003281449581323149</v>
+        <v>3.281449581323149E-3</v>
       </c>
       <c r="G14">
-        <v>0.006049868628886436</v>
+        <v>6.0498686288864359E-3</v>
       </c>
       <c r="H14">
-        <v>0.01795437294921953</v>
+        <v>1.7954372949219529E-2</v>
       </c>
       <c r="I14">
-        <v>0.0728857737213803</v>
+        <v>7.2885773721380304E-2</v>
       </c>
       <c r="J14">
-        <v>0.02286161926365789</v>
+        <v>2.286161926365789E-2</v>
       </c>
       <c r="K14">
         <v>0.1567797864497541</v>
       </c>
       <c r="L14">
-        <v>0.005012629710635092</v>
+        <v>5.0126297106350918E-3</v>
       </c>
       <c r="M14">
-        <v>0.001381678141554884</v>
+        <v>1.381678141554884E-3</v>
       </c>
       <c r="N14">
-        <v>0.003038344497649409</v>
+        <v>3.0383444976494092E-3</v>
       </c>
       <c r="O14">
-        <v>0.03347375643442048</v>
+        <v>3.3473756434420479E-2</v>
       </c>
       <c r="P14">
-        <v>0.2158730251570972</v>
+        <v>0.21587302515709719</v>
       </c>
       <c r="Q14">
         <v>0.1016412184368484</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>42036</v>
       </c>
       <c r="B15">
-        <v>0.2456025951126095</v>
+        <v>0.24560259511260951</v>
       </c>
       <c r="C15">
-        <v>0.02773783157764739</v>
+        <v>2.7737831577647389E-2</v>
       </c>
       <c r="D15">
-        <v>0.08041749415074066</v>
+        <v>8.0417494150740662E-2</v>
       </c>
       <c r="E15">
-        <v>0.005435800341016517</v>
+        <v>5.4358003410165173E-3</v>
       </c>
       <c r="F15">
-        <v>0.003342200321719769</v>
+        <v>3.3422003217197689E-3</v>
       </c>
       <c r="G15">
-        <v>0.006206973797780306</v>
+        <v>6.2069737977803064E-3</v>
       </c>
       <c r="H15">
-        <v>0.01835601500577314</v>
+        <v>1.8356015005773139E-2</v>
       </c>
       <c r="I15">
-        <v>0.07481433626209834</v>
+        <v>7.4814336262098338E-2</v>
       </c>
       <c r="J15">
-        <v>0.02283877122847503</v>
+        <v>2.2838771228475031E-2</v>
       </c>
       <c r="K15">
-        <v>0.1573946720495596</v>
+        <v>0.15739467204955959</v>
       </c>
       <c r="L15">
-        <v>0.004972876055843151</v>
+        <v>4.9728760558431506E-3</v>
       </c>
       <c r="M15">
-        <v>0.001371642677154708</v>
+        <v>1.3716426771547079E-3</v>
       </c>
       <c r="N15">
-        <v>0.003000996714984389</v>
+        <v>3.0009967149843891E-3</v>
       </c>
       <c r="O15">
-        <v>0.03294985725171435</v>
+        <v>3.294985725171435E-2</v>
       </c>
       <c r="P15">
         <v>0.2149002356329868</v>
       </c>
       <c r="Q15">
-        <v>0.1006577018198962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.10065770181989619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>42064</v>
       </c>
@@ -1231,202 +1290,202 @@
         <v>0.2465306292749076</v>
       </c>
       <c r="C16">
-        <v>0.02812306986495047</v>
+        <v>2.8123069864950469E-2</v>
       </c>
       <c r="D16">
-        <v>0.08155808852027607</v>
+        <v>8.1558088520276073E-2</v>
       </c>
       <c r="E16">
-        <v>0.005517657716583226</v>
+        <v>5.5176577165832264E-3</v>
       </c>
       <c r="F16">
-        <v>0.003421845656593926</v>
+        <v>3.4218456565939261E-3</v>
       </c>
       <c r="G16">
-        <v>0.006335573825436754</v>
+        <v>6.3355738254367543E-3</v>
       </c>
       <c r="H16">
-        <v>0.01873009066921842</v>
+        <v>1.8730090669218422E-2</v>
       </c>
       <c r="I16">
-        <v>0.07567599051739422</v>
+        <v>7.5675990517394223E-2</v>
       </c>
       <c r="J16">
-        <v>0.02259868998585058</v>
+        <v>2.259868998585058E-2</v>
       </c>
       <c r="K16">
         <v>0.1562695077577696</v>
       </c>
       <c r="L16">
-        <v>0.004889540664562834</v>
+        <v>4.889540664562834E-3</v>
       </c>
       <c r="M16">
-        <v>0.001353576731466897</v>
+        <v>1.353576731466897E-3</v>
       </c>
       <c r="N16">
-        <v>0.002959774852605662</v>
+        <v>2.9597748526056619E-3</v>
       </c>
       <c r="O16">
-        <v>0.03184867943175167</v>
+        <v>3.1848679431751667E-2</v>
       </c>
       <c r="P16">
-        <v>0.2137672688317513</v>
+        <v>0.21376726883175129</v>
       </c>
       <c r="Q16">
         <v>0.1004200156988808</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>42095</v>
       </c>
       <c r="B17">
-        <v>0.2452298304893473</v>
+        <v>0.24522983048934729</v>
       </c>
       <c r="C17">
-        <v>0.0278905870110102</v>
+        <v>2.7890587011010201E-2</v>
       </c>
       <c r="D17">
-        <v>0.08107266880400721</v>
+        <v>8.1072668804007209E-2</v>
       </c>
       <c r="E17">
-        <v>0.005432949054885466</v>
+        <v>5.4329490548854662E-3</v>
       </c>
       <c r="F17">
-        <v>0.003388806446010538</v>
+        <v>3.3888064460105378E-3</v>
       </c>
       <c r="G17">
-        <v>0.006278927049686928</v>
+        <v>6.2789270496869283E-3</v>
       </c>
       <c r="H17">
-        <v>0.01857447156566714</v>
+        <v>1.857447156566714E-2</v>
       </c>
       <c r="I17">
-        <v>0.07528810169876733</v>
+        <v>7.5288101698767332E-2</v>
       </c>
       <c r="J17">
-        <v>0.02286229138866867</v>
+        <v>2.286229138866867E-2</v>
       </c>
       <c r="K17">
         <v>0.1582956876058596</v>
       </c>
       <c r="L17">
-        <v>0.004849360008649458</v>
+        <v>4.8493600086494584E-3</v>
       </c>
       <c r="M17">
-        <v>0.001345623074788207</v>
+        <v>1.3456230747882071E-3</v>
       </c>
       <c r="N17">
-        <v>0.002934478025393279</v>
+        <v>2.934478025393279E-3</v>
       </c>
       <c r="O17">
-        <v>0.03117088290089364</v>
+        <v>3.1170882900893641E-2</v>
       </c>
       <c r="P17">
-        <v>0.2142204918228093</v>
+        <v>0.21422049182280931</v>
       </c>
       <c r="Q17">
-        <v>0.1011648430535556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.10116484305355559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>42125</v>
       </c>
       <c r="B18">
-        <v>0.2431958845044014</v>
+        <v>0.24319588450440141</v>
       </c>
       <c r="C18">
-        <v>0.02802651364376763</v>
+        <v>2.8026513643767629E-2</v>
       </c>
       <c r="D18">
-        <v>0.08144604947024889</v>
+        <v>8.1446049470248888E-2</v>
       </c>
       <c r="E18">
-        <v>0.005457629057739173</v>
+        <v>5.4576290577391731E-3</v>
       </c>
       <c r="F18">
-        <v>0.003398793795730003</v>
+        <v>3.3987937957300029E-3</v>
       </c>
       <c r="G18">
-        <v>0.006324096478798641</v>
+        <v>6.3240964787986409E-3</v>
       </c>
       <c r="H18">
-        <v>0.01871687163609698</v>
+        <v>1.871687163609698E-2</v>
       </c>
       <c r="I18">
-        <v>0.0755751721456517</v>
+        <v>7.5575172145651695E-2</v>
       </c>
       <c r="J18">
-        <v>0.022864803905803</v>
+        <v>2.2864803905803002E-2</v>
       </c>
       <c r="K18">
-        <v>0.1589717177598942</v>
+        <v>0.15897171775989419</v>
       </c>
       <c r="L18">
-        <v>0.004859582526105894</v>
+        <v>4.8595825261058944E-3</v>
       </c>
       <c r="M18">
-        <v>0.001346801945797075</v>
+        <v>1.3468019457970751E-3</v>
       </c>
       <c r="N18">
-        <v>0.002943134372561841</v>
+        <v>2.9431343725618412E-3</v>
       </c>
       <c r="O18">
-        <v>0.03122422779068472</v>
+        <v>3.1224227790684719E-2</v>
       </c>
       <c r="P18">
-        <v>0.2149318265061319</v>
+        <v>0.21493182650613191</v>
       </c>
       <c r="Q18">
         <v>0.1007168944605874</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>42156</v>
       </c>
       <c r="B19">
-        <v>0.2394029845104025</v>
+        <v>0.23940298451040251</v>
       </c>
       <c r="C19">
-        <v>0.02765904988854016</v>
+        <v>2.765904988854016E-2</v>
       </c>
       <c r="D19">
-        <v>0.080454600333252</v>
+        <v>8.0454600333251997E-2</v>
       </c>
       <c r="E19">
-        <v>0.005385645834294796</v>
+        <v>5.3856458342947961E-3</v>
       </c>
       <c r="F19">
-        <v>0.003340105533045326</v>
+        <v>3.3401055330453261E-3</v>
       </c>
       <c r="G19">
-        <v>0.006258851855635871</v>
+        <v>6.2588518556358714E-3</v>
       </c>
       <c r="H19">
-        <v>0.01857958166253218</v>
+        <v>1.857958166253218E-2</v>
       </c>
       <c r="I19">
-        <v>0.07454946533628398</v>
+        <v>7.4549465336283982E-2</v>
       </c>
       <c r="J19">
-        <v>0.02290518210171372</v>
+        <v>2.290518210171372E-2</v>
       </c>
       <c r="K19">
         <v>0.1608206448075955</v>
       </c>
       <c r="L19">
-        <v>0.004889584974776534</v>
+        <v>4.8895849747765336E-3</v>
       </c>
       <c r="M19">
-        <v>0.0013525000233768</v>
+        <v>1.3525000233768E-3</v>
       </c>
       <c r="N19">
-        <v>0.002961312843792539</v>
+        <v>2.9613128437925391E-3</v>
       </c>
       <c r="O19">
-        <v>0.03143768763695395</v>
+        <v>3.1437687636953947E-2</v>
       </c>
       <c r="P19">
         <v>0.2174948071199154</v>
@@ -1435,7 +1494,7 @@
         <v>0.1025079955378892</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>42186</v>
       </c>
@@ -1443,43 +1502,43 @@
         <v>0.245551310990648</v>
       </c>
       <c r="C20">
-        <v>0.02663265825317193</v>
+        <v>2.6632658253171931E-2</v>
       </c>
       <c r="D20">
-        <v>0.07738891225586583</v>
+        <v>7.7388912255865833E-2</v>
       </c>
       <c r="E20">
-        <v>0.005109614551128489</v>
+        <v>5.1096145511284894E-3</v>
       </c>
       <c r="F20">
-        <v>0.003166082997911089</v>
+        <v>3.166082997911089E-3</v>
       </c>
       <c r="G20">
-        <v>0.005945814747107014</v>
+        <v>5.9458147471070141E-3</v>
       </c>
       <c r="H20">
-        <v>0.01775829253831078</v>
+        <v>1.775829253831078E-2</v>
       </c>
       <c r="I20">
-        <v>0.07204176567458037</v>
+        <v>7.2041765674580371E-2</v>
       </c>
       <c r="J20">
-        <v>0.02273400922281178</v>
+        <v>2.2734009222811779E-2</v>
       </c>
       <c r="K20">
         <v>0.1618306509262063</v>
       </c>
       <c r="L20">
-        <v>0.004862116845418539</v>
+        <v>4.8621168454185387E-3</v>
       </c>
       <c r="M20">
-        <v>0.001343618404262987</v>
+        <v>1.343618404262987E-3</v>
       </c>
       <c r="N20">
-        <v>0.002951430973518943</v>
+        <v>2.9514309735189431E-3</v>
       </c>
       <c r="O20">
-        <v>0.03114309044952942</v>
+        <v>3.1143090449529419E-2</v>
       </c>
       <c r="P20">
         <v>0.2176055549321555</v>
@@ -1488,166 +1547,166 @@
         <v>0.1039350762373734</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>42217</v>
       </c>
       <c r="B21">
-        <v>0.2470399780661444</v>
+        <v>0.24703997806614439</v>
       </c>
       <c r="C21">
-        <v>0.02490608776162191</v>
+        <v>2.4906087761621908E-2</v>
       </c>
       <c r="D21">
-        <v>0.0719803902763502</v>
+        <v>7.1980390276350198E-2</v>
       </c>
       <c r="E21">
-        <v>0.004755209709842855</v>
+        <v>4.7552097098428553E-3</v>
       </c>
       <c r="F21">
-        <v>0.002941721112456319</v>
+        <v>2.941721112456319E-3</v>
       </c>
       <c r="G21">
-        <v>0.00553790781100135</v>
+        <v>5.5379078110013502E-3</v>
       </c>
       <c r="H21">
-        <v>0.01653160498742092</v>
+        <v>1.6531604987420921E-2</v>
       </c>
       <c r="I21">
-        <v>0.06712003441725065</v>
+        <v>6.7120034417250646E-2</v>
       </c>
       <c r="J21">
-        <v>0.0231559315566142</v>
+        <v>2.31559315566142E-2</v>
       </c>
       <c r="K21">
         <v>0.1658769130104138</v>
       </c>
       <c r="L21">
-        <v>0.005004544135020435</v>
+        <v>5.0045441350204346E-3</v>
       </c>
       <c r="M21">
-        <v>0.001383859566541661</v>
+        <v>1.3838595665416609E-3</v>
       </c>
       <c r="N21">
-        <v>0.003047186746432374</v>
+        <v>3.0471867464323741E-3</v>
       </c>
       <c r="O21">
-        <v>0.03172338085100139</v>
+        <v>3.172338085100139E-2</v>
       </c>
       <c r="P21">
         <v>0.2242109768924434</v>
       </c>
       <c r="Q21">
-        <v>0.104784273099444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.10478427309944401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>42248</v>
       </c>
       <c r="B22">
-        <v>0.2473193127336104</v>
+        <v>0.24731931273361041</v>
       </c>
       <c r="C22">
-        <v>0.02516854877402831</v>
+        <v>2.5168548774028309E-2</v>
       </c>
       <c r="D22">
-        <v>0.07159257082572448</v>
+        <v>7.1592570825724483E-2</v>
       </c>
       <c r="E22">
-        <v>0.004742907107046023</v>
+        <v>4.7429071070460233E-3</v>
       </c>
       <c r="F22">
-        <v>0.002934776204629359</v>
+        <v>2.9347762046293591E-3</v>
       </c>
       <c r="G22">
-        <v>0.005521036452727917</v>
+        <v>5.5210364527279168E-3</v>
       </c>
       <c r="H22">
-        <v>0.01651172896423313</v>
+        <v>1.6511728964233131E-2</v>
       </c>
       <c r="I22">
-        <v>0.06705067087111637</v>
+        <v>6.7050670871116366E-2</v>
       </c>
       <c r="J22">
-        <v>0.02309885465807606</v>
+        <v>2.3098854658076061E-2</v>
       </c>
       <c r="K22">
         <v>0.1659392963953478</v>
       </c>
       <c r="L22">
-        <v>0.005003081482112775</v>
+        <v>5.0030814821127754E-3</v>
       </c>
       <c r="M22">
-        <v>0.001385834849251485</v>
+        <v>1.385834849251485E-3</v>
       </c>
       <c r="N22">
-        <v>0.003071739630158351</v>
+        <v>3.0717396301583508E-3</v>
       </c>
       <c r="O22">
-        <v>0.03148918237535638</v>
+        <v>3.1489182375356382E-2</v>
       </c>
       <c r="P22">
-        <v>0.2244718484060931</v>
+        <v>0.22447184840609311</v>
       </c>
       <c r="Q22">
         <v>0.1046986102704881</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>42278</v>
       </c>
       <c r="B23">
-        <v>0.2472890304337992</v>
+        <v>0.24728903043379921</v>
       </c>
       <c r="C23">
-        <v>0.02478841147754465</v>
+        <v>2.4788411477544649E-2</v>
       </c>
       <c r="D23">
-        <v>0.06998226635427934</v>
+        <v>6.9982266354279343E-2</v>
       </c>
       <c r="E23">
-        <v>0.004645693214419149</v>
+        <v>4.6456932144191493E-3</v>
       </c>
       <c r="F23">
-        <v>0.002878070556107558</v>
+        <v>2.8780705561075579E-3</v>
       </c>
       <c r="G23">
-        <v>0.005405821585207135</v>
+        <v>5.4058215852071352E-3</v>
       </c>
       <c r="H23">
-        <v>0.01615097434405937</v>
+        <v>1.615097434405937E-2</v>
       </c>
       <c r="I23">
-        <v>0.06569011813203078</v>
+        <v>6.5690118132030781E-2</v>
       </c>
       <c r="J23">
-        <v>0.02337008480614592</v>
+        <v>2.337008480614592E-2</v>
       </c>
       <c r="K23">
-        <v>0.1686882741566735</v>
+        <v>0.16868827415667351</v>
       </c>
       <c r="L23">
-        <v>0.005076987092204412</v>
+        <v>5.0769870922044123E-3</v>
       </c>
       <c r="M23">
-        <v>0.001404265024356459</v>
+        <v>1.4042650243564589E-3</v>
       </c>
       <c r="N23">
-        <v>0.003131539983402689</v>
+        <v>3.1315399834026892E-3</v>
       </c>
       <c r="O23">
-        <v>0.03182485556344024</v>
+        <v>3.1824855563440238E-2</v>
       </c>
       <c r="P23">
         <v>0.2252773046468487</v>
       </c>
       <c r="Q23">
-        <v>0.104396302629481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.10439630262948101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>42309</v>
       </c>
@@ -1655,52 +1714,52 @@
         <v>0.2464337196385433</v>
       </c>
       <c r="C24">
-        <v>0.02519412359315257</v>
+        <v>2.5194123593152571E-2</v>
       </c>
       <c r="D24">
-        <v>0.07036273331250063</v>
+        <v>7.0362733312500633E-2</v>
       </c>
       <c r="E24">
-        <v>0.004684671600018239</v>
+        <v>4.6846716000182387E-3</v>
       </c>
       <c r="F24">
-        <v>0.002907744942233274</v>
+        <v>2.9077449422332739E-3</v>
       </c>
       <c r="G24">
-        <v>0.005442211746621608</v>
+        <v>5.442211746621608E-3</v>
       </c>
       <c r="H24">
-        <v>0.01623577148465274</v>
+        <v>1.6235771484652741E-2</v>
       </c>
       <c r="I24">
-        <v>0.06628645713212734</v>
+        <v>6.6286457132127344E-2</v>
       </c>
       <c r="J24">
-        <v>0.02337860463367986</v>
+        <v>2.3378604633679859E-2</v>
       </c>
       <c r="K24">
-        <v>0.1684820165409155</v>
+        <v>0.16848201654091549</v>
       </c>
       <c r="L24">
-        <v>0.005089928575935714</v>
+        <v>5.0899285759357137E-3</v>
       </c>
       <c r="M24">
-        <v>0.001413166011557685</v>
+        <v>1.4131660115576849E-3</v>
       </c>
       <c r="N24">
-        <v>0.003144460464231641</v>
+        <v>3.1444604642316409E-3</v>
       </c>
       <c r="O24">
-        <v>0.03156990441411709</v>
+        <v>3.1569904414117091E-2</v>
       </c>
       <c r="P24">
-        <v>0.2247804028343557</v>
+        <v>0.22478040283435571</v>
       </c>
       <c r="Q24">
         <v>0.1045940830753572</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>42339</v>
       </c>
@@ -1708,573 +1767,573 @@
         <v>0.2476812397746963</v>
       </c>
       <c r="C25">
-        <v>0.02525997018668898</v>
+        <v>2.525997018668898E-2</v>
       </c>
       <c r="D25">
-        <v>0.07022808958981447</v>
+        <v>7.0228089589814469E-2</v>
       </c>
       <c r="E25">
-        <v>0.004697754025811515</v>
+        <v>4.6977540258115154E-3</v>
       </c>
       <c r="F25">
-        <v>0.002919595425424031</v>
+        <v>2.9195954254240312E-3</v>
       </c>
       <c r="G25">
-        <v>0.005458547070786623</v>
+        <v>5.4585470707866233E-3</v>
       </c>
       <c r="H25">
-        <v>0.0162669818092405</v>
+        <v>1.6266981809240501E-2</v>
       </c>
       <c r="I25">
-        <v>0.06614518144524077</v>
+        <v>6.6145181445240772E-2</v>
       </c>
       <c r="J25">
-        <v>0.02336324473784581</v>
+        <v>2.3363244737845811E-2</v>
       </c>
       <c r="K25">
-        <v>0.1681983436119703</v>
+        <v>0.16819834361197031</v>
       </c>
       <c r="L25">
-        <v>0.005127870839177043</v>
+        <v>5.1278708391770426E-3</v>
       </c>
       <c r="M25">
-        <v>0.001426473448766314</v>
+        <v>1.426473448766314E-3</v>
       </c>
       <c r="N25">
-        <v>0.00316842303612934</v>
+        <v>3.16842303612934E-3</v>
       </c>
       <c r="O25">
-        <v>0.03167923006804659</v>
+        <v>3.1679230068046592E-2</v>
       </c>
       <c r="P25">
-        <v>0.2239607573514897</v>
+        <v>0.22396075735148971</v>
       </c>
       <c r="Q25">
         <v>0.1044182975788716</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>42370</v>
       </c>
       <c r="B26">
-        <v>0.2479446938218864</v>
+        <v>0.24794469382188641</v>
       </c>
       <c r="C26">
-        <v>0.02524168252342233</v>
+        <v>2.5241682523422331E-2</v>
       </c>
       <c r="D26">
-        <v>0.06974932492854856</v>
+        <v>6.9749324928548559E-2</v>
       </c>
       <c r="E26">
-        <v>0.00466533136148305</v>
+        <v>4.6653313614830501E-3</v>
       </c>
       <c r="F26">
-        <v>0.002907949524221819</v>
+        <v>2.9079495242218191E-3</v>
       </c>
       <c r="G26">
-        <v>0.005445929851957678</v>
+        <v>5.4459298519576784E-3</v>
       </c>
       <c r="H26">
-        <v>0.01622764540508389</v>
+        <v>1.6227645405083889E-2</v>
       </c>
       <c r="I26">
-        <v>0.06574415130922447</v>
+        <v>6.5744151309224466E-2</v>
       </c>
       <c r="J26">
-        <v>0.02334549268486289</v>
+        <v>2.3345492684862891E-2</v>
       </c>
       <c r="K26">
-        <v>0.1683406987345072</v>
+        <v>0.16834069873450719</v>
       </c>
       <c r="L26">
-        <v>0.005125265806563526</v>
+        <v>5.1252658065635264E-3</v>
       </c>
       <c r="M26">
-        <v>0.001426314303934367</v>
+        <v>1.426314303934367E-3</v>
       </c>
       <c r="N26">
-        <v>0.003174729811654388</v>
+        <v>3.1747298116543881E-3</v>
       </c>
       <c r="O26">
-        <v>0.03168779113350731</v>
+        <v>3.1687791133507309E-2</v>
       </c>
       <c r="P26">
-        <v>0.2245220569673458</v>
+        <v>0.22452205696734581</v>
       </c>
       <c r="Q26">
         <v>0.1044509418317963</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>42401</v>
       </c>
       <c r="B27">
-        <v>0.248754183583744</v>
+        <v>0.24875418358374399</v>
       </c>
       <c r="C27">
-        <v>0.02574518791496305</v>
+        <v>2.5745187914963049E-2</v>
       </c>
       <c r="D27">
-        <v>0.06948107853769975</v>
+        <v>6.9481078537699748E-2</v>
       </c>
       <c r="E27">
-        <v>0.004695731756802346</v>
+        <v>4.6957317568023463E-3</v>
       </c>
       <c r="F27">
-        <v>0.002932051865566353</v>
+        <v>2.9320518655663532E-3</v>
       </c>
       <c r="G27">
-        <v>0.005500700600816609</v>
+        <v>5.500700600816609E-3</v>
       </c>
       <c r="H27">
-        <v>0.01641587407584261</v>
+        <v>1.641587407584261E-2</v>
       </c>
       <c r="I27">
-        <v>0.06568190815363488</v>
+        <v>6.568190815363488E-2</v>
       </c>
       <c r="J27">
-        <v>0.02328161414876036</v>
+        <v>2.3281614148760361E-2</v>
       </c>
       <c r="K27">
-        <v>0.1681195595936774</v>
+        <v>0.16811955959367739</v>
       </c>
       <c r="L27">
-        <v>0.005144891253327815</v>
+        <v>5.1448912533278148E-3</v>
       </c>
       <c r="M27">
-        <v>0.001433698551383046</v>
+        <v>1.433698551383046E-3</v>
       </c>
       <c r="N27">
-        <v>0.003189111123800375</v>
+        <v>3.189111123800375E-3</v>
       </c>
       <c r="O27">
-        <v>0.03170247295655396</v>
+        <v>3.1702472956553963E-2</v>
       </c>
       <c r="P27">
-        <v>0.2240053548790102</v>
+        <v>0.22400535487901019</v>
       </c>
       <c r="Q27">
         <v>0.1039165810044172</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>42430</v>
       </c>
       <c r="B28">
-        <v>0.2477078710463027</v>
+        <v>0.24770787104630271</v>
       </c>
       <c r="C28">
-        <v>0.0261216631931277</v>
+        <v>2.6121663193127701E-2</v>
       </c>
       <c r="D28">
-        <v>0.068487937060354</v>
+        <v>6.8487937060353998E-2</v>
       </c>
       <c r="E28">
-        <v>0.004706592296286434</v>
+        <v>4.7065922962864336E-3</v>
       </c>
       <c r="F28">
-        <v>0.002960315646905497</v>
+        <v>2.9603156469054969E-3</v>
       </c>
       <c r="G28">
-        <v>0.005532722161117141</v>
+        <v>5.5327221611171408E-3</v>
       </c>
       <c r="H28">
-        <v>0.01644271997129081</v>
+        <v>1.644271997129081E-2</v>
       </c>
       <c r="I28">
-        <v>0.06496725017788182</v>
+        <v>6.4967250177881825E-2</v>
       </c>
       <c r="J28">
-        <v>0.02320978444715243</v>
+        <v>2.320978444715243E-2</v>
       </c>
       <c r="K28">
         <v>0.1678081971718956</v>
       </c>
       <c r="L28">
-        <v>0.005213542812832223</v>
+        <v>5.2135428128322232E-3</v>
       </c>
       <c r="M28">
-        <v>0.001458661529653867</v>
+        <v>1.458661529653867E-3</v>
       </c>
       <c r="N28">
-        <v>0.003248681289722392</v>
+        <v>3.2486812897223921E-3</v>
       </c>
       <c r="O28">
-        <v>0.03179655180008595</v>
+        <v>3.1796551800085948E-2</v>
       </c>
       <c r="P28">
-        <v>0.2259460288292656</v>
+        <v>0.22594602882926559</v>
       </c>
       <c r="Q28">
-        <v>0.1043914805661258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>0.10439148056612579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>42461</v>
       </c>
       <c r="B29">
-        <v>0.2480768038574488</v>
+        <v>0.24807680385744879</v>
       </c>
       <c r="C29">
-        <v>0.02615683231279969</v>
+        <v>2.615683231279969E-2</v>
       </c>
       <c r="D29">
-        <v>0.06825898435282396</v>
+        <v>6.8258984352823959E-2</v>
       </c>
       <c r="E29">
-        <v>0.004693171506537909</v>
+        <v>4.6931715065379092E-3</v>
       </c>
       <c r="F29">
-        <v>0.002956810076146419</v>
+        <v>2.9568100761464189E-3</v>
       </c>
       <c r="G29">
-        <v>0.005527389152080193</v>
+        <v>5.5273891520801928E-3</v>
       </c>
       <c r="H29">
-        <v>0.01633460167882209</v>
+        <v>1.6334601678822089E-2</v>
       </c>
       <c r="I29">
-        <v>0.06490384425203703</v>
+        <v>6.4903844252037032E-2</v>
       </c>
       <c r="J29">
-        <v>0.02332566976092623</v>
+        <v>2.3325669760926229E-2</v>
       </c>
       <c r="K29">
-        <v>0.167722641081663</v>
+        <v>0.16772264108166299</v>
       </c>
       <c r="L29">
-        <v>0.005298846603615482</v>
+        <v>5.2988466036154817E-3</v>
       </c>
       <c r="M29">
-        <v>0.00148951234463954</v>
+        <v>1.4895123446395399E-3</v>
       </c>
       <c r="N29">
-        <v>0.00330496596539278</v>
+        <v>3.30496596539278E-3</v>
       </c>
       <c r="O29">
-        <v>0.03191234914079009</v>
+        <v>3.1912349140790087E-2</v>
       </c>
       <c r="P29">
-        <v>0.2253331692901377</v>
+        <v>0.22533316929013769</v>
       </c>
       <c r="Q29">
         <v>0.1047044086241391</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>42491</v>
       </c>
       <c r="B30">
-        <v>0.2479555321155295</v>
+        <v>0.24795553211552951</v>
       </c>
       <c r="C30">
-        <v>0.02615892336351124</v>
+        <v>2.6158923363511239E-2</v>
       </c>
       <c r="D30">
-        <v>0.06810103567575175</v>
+        <v>6.810103567575175E-2</v>
       </c>
       <c r="E30">
-        <v>0.004680261572830829</v>
+        <v>4.6802615728308286E-3</v>
       </c>
       <c r="F30">
-        <v>0.002950585870728406</v>
+        <v>2.950585870728406E-3</v>
       </c>
       <c r="G30">
-        <v>0.005519206466433403</v>
+        <v>5.5192064664334028E-3</v>
       </c>
       <c r="H30">
-        <v>0.01631367947971447</v>
+        <v>1.6313679479714471E-2</v>
       </c>
       <c r="I30">
-        <v>0.06479622564955588</v>
+        <v>6.479622564955588E-2</v>
       </c>
       <c r="J30">
-        <v>0.02336848119746006</v>
+        <v>2.3368481197460059E-2</v>
       </c>
       <c r="K30">
-        <v>0.1681727735111248</v>
+        <v>0.16817277351112481</v>
       </c>
       <c r="L30">
-        <v>0.005334993249040528</v>
+        <v>5.3349932490405283E-3</v>
       </c>
       <c r="M30">
-        <v>0.001501331357241363</v>
+        <v>1.5013313572413631E-3</v>
       </c>
       <c r="N30">
-        <v>0.0033313749806958</v>
+        <v>3.3313749806958E-3</v>
       </c>
       <c r="O30">
-        <v>0.03206119185599638</v>
+        <v>3.2061191855996381E-2</v>
       </c>
       <c r="P30">
-        <v>0.2250542414703844</v>
+        <v>0.22505424147038439</v>
       </c>
       <c r="Q30">
-        <v>0.1047001621840016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0.10470016218400161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>42522</v>
       </c>
       <c r="B31">
-        <v>0.2925477389746989</v>
+        <v>0.29254773897469888</v>
       </c>
       <c r="C31">
-        <v>0.01827554861801781</v>
+        <v>1.827554861801781E-2</v>
       </c>
       <c r="D31">
-        <v>0.04754231181375693</v>
+        <v>4.7542311813756927E-2</v>
       </c>
       <c r="E31">
-        <v>0.003268726201349778</v>
+        <v>3.268726201349778E-3</v>
       </c>
       <c r="F31">
-        <v>0.002060939169656659</v>
+        <v>2.0609391696566589E-3</v>
       </c>
       <c r="G31">
-        <v>0.003848882982416307</v>
+        <v>3.8488829824163068E-3</v>
       </c>
       <c r="H31">
-        <v>0.01135103934923614</v>
+        <v>1.135103934923614E-2</v>
       </c>
       <c r="I31">
-        <v>0.04528827272911586</v>
+        <v>4.5288272729115862E-2</v>
       </c>
       <c r="J31">
-        <v>0.02314816871364374</v>
+        <v>2.3148168713643742E-2</v>
       </c>
       <c r="K31">
-        <v>0.1666551262160283</v>
+        <v>0.16665512621602829</v>
       </c>
       <c r="L31">
-        <v>0.005666387458072119</v>
+        <v>5.6663874580721186E-3</v>
       </c>
       <c r="M31">
-        <v>0.00159808392549145</v>
+        <v>1.5980839254914499E-3</v>
       </c>
       <c r="N31">
-        <v>0.003548015523849115</v>
+        <v>3.548015523849115E-3</v>
       </c>
       <c r="O31">
-        <v>0.03387737369755497</v>
+        <v>3.3877373697554967E-2</v>
       </c>
       <c r="P31">
-        <v>0.2381490017281278</v>
+        <v>0.23814900172812781</v>
       </c>
       <c r="Q31">
         <v>0.1031743828989842</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>42552</v>
       </c>
       <c r="B32">
-        <v>0.2914927262711052</v>
+        <v>0.29149272627110517</v>
       </c>
       <c r="C32">
-        <v>0.01824060944273792</v>
+        <v>1.8240609442737921E-2</v>
       </c>
       <c r="D32">
-        <v>0.04711815268538824</v>
+        <v>4.7118152685388243E-2</v>
       </c>
       <c r="E32">
-        <v>0.003249130757557643</v>
+        <v>3.2491307575576432E-3</v>
       </c>
       <c r="F32">
-        <v>0.002049050865585865</v>
+        <v>2.0490508655858649E-3</v>
       </c>
       <c r="G32">
-        <v>0.003826590787229989</v>
+        <v>3.826590787229989E-3</v>
       </c>
       <c r="H32">
-        <v>0.01121859898647237</v>
+        <v>1.1218598986472371E-2</v>
       </c>
       <c r="I32">
-        <v>0.04501539073128029</v>
+        <v>4.5015390731280289E-2</v>
       </c>
       <c r="J32">
-        <v>0.02329959978699455</v>
+        <v>2.329959978699455E-2</v>
       </c>
       <c r="K32">
-        <v>0.1675713584110589</v>
+        <v>0.16757135841105891</v>
       </c>
       <c r="L32">
-        <v>0.005823759193731218</v>
+        <v>5.8237591937312181E-3</v>
       </c>
       <c r="M32">
-        <v>0.001651164261655528</v>
+        <v>1.6511642616555281E-3</v>
       </c>
       <c r="N32">
-        <v>0.003651103130380519</v>
+        <v>3.651103130380519E-3</v>
       </c>
       <c r="O32">
-        <v>0.03435261059446124</v>
+        <v>3.4352610594461243E-2</v>
       </c>
       <c r="P32">
-        <v>0.2395656075369854</v>
+        <v>0.23956560753698539</v>
       </c>
       <c r="Q32">
         <v>0.1018745465573748</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>42583</v>
       </c>
       <c r="B33">
-        <v>0.2487387960691469</v>
+        <v>0.24873879606914689</v>
       </c>
       <c r="C33">
-        <v>0.02595415949925405</v>
+        <v>2.5954159499254049E-2</v>
       </c>
       <c r="D33">
-        <v>0.06705793683022965</v>
+        <v>6.7057936830229647E-2</v>
       </c>
       <c r="E33">
-        <v>0.004612786101705283</v>
+        <v>4.6127861017052829E-3</v>
       </c>
       <c r="F33">
-        <v>0.002902018147449191</v>
+        <v>2.902018147449191E-3</v>
       </c>
       <c r="G33">
-        <v>0.005439742373150364</v>
+        <v>5.4397423731503639E-3</v>
       </c>
       <c r="H33">
-        <v>0.01586430570439998</v>
+        <v>1.5864305704399981E-2</v>
       </c>
       <c r="I33">
-        <v>0.0641932440027789</v>
+        <v>6.4193244002778899E-2</v>
       </c>
       <c r="J33">
-        <v>0.02350120508792318</v>
+        <v>2.350120508792318E-2</v>
       </c>
       <c r="K33">
-        <v>0.1696959706526537</v>
+        <v>0.16969597065265371</v>
       </c>
       <c r="L33">
-        <v>0.005487331621927232</v>
+        <v>5.4873316219272317E-3</v>
       </c>
       <c r="M33">
-        <v>0.001558356981456933</v>
+        <v>1.558356981456933E-3</v>
       </c>
       <c r="N33">
-        <v>0.003451544372349472</v>
+        <v>3.451544372349472E-3</v>
       </c>
       <c r="O33">
-        <v>0.0323283362964426</v>
+        <v>3.2328336296442599E-2</v>
       </c>
       <c r="P33">
-        <v>0.2248046346366004</v>
+        <v>0.22480463463660039</v>
       </c>
       <c r="Q33">
         <v>0.104409631622532</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>42614</v>
       </c>
       <c r="B34">
-        <v>0.2486508257251646</v>
+        <v>0.24865082572516459</v>
       </c>
       <c r="C34">
-        <v>0.02602123823371138</v>
+        <v>2.6021238233711379E-2</v>
       </c>
       <c r="D34">
-        <v>0.06726714144772243</v>
+        <v>6.7267141447722431E-2</v>
       </c>
       <c r="E34">
-        <v>0.004608923292925991</v>
+        <v>4.6089232929259908E-3</v>
       </c>
       <c r="F34">
-        <v>0.002901536354428549</v>
+        <v>2.9015363544285491E-3</v>
       </c>
       <c r="G34">
-        <v>0.005446818307957785</v>
+        <v>5.4468183079577851E-3</v>
       </c>
       <c r="H34">
-        <v>0.01583495430401382</v>
+        <v>1.5834954304013819E-2</v>
       </c>
       <c r="I34">
-        <v>0.06449614742210767</v>
+        <v>6.4496147422107672E-2</v>
       </c>
       <c r="J34">
-        <v>0.02353545437935077</v>
+        <v>2.353545437935077E-2</v>
       </c>
       <c r="K34">
-        <v>0.1696581649385137</v>
+        <v>0.16965816493851371</v>
       </c>
       <c r="L34">
-        <v>0.00550509157728296</v>
+        <v>5.5050915772829603E-3</v>
       </c>
       <c r="M34">
-        <v>0.001568533801865265</v>
+        <v>1.5685338018652649E-3</v>
       </c>
       <c r="N34">
-        <v>0.003478190917961274</v>
+        <v>3.4781909179612742E-3</v>
       </c>
       <c r="O34">
-        <v>0.03224384193744748</v>
+        <v>3.2243841937447483E-2</v>
       </c>
       <c r="P34">
-        <v>0.2242518776313502</v>
+        <v>0.22425187763135021</v>
       </c>
       <c r="Q34">
         <v>0.1045312597281963</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>42644</v>
       </c>
       <c r="B35">
-        <v>0.2942974563493668</v>
+        <v>0.29429745634936683</v>
       </c>
       <c r="C35">
-        <v>0.01956955687718481</v>
+        <v>1.9569556877184809E-2</v>
       </c>
       <c r="D35">
-        <v>0.0465069952362492</v>
+        <v>4.6506995236249203E-2</v>
       </c>
       <c r="E35">
-        <v>0.003263202818819849</v>
+        <v>3.2632028188198489E-3</v>
       </c>
       <c r="F35">
-        <v>0.002052510515905198</v>
+        <v>2.0525105159051979E-3</v>
       </c>
       <c r="G35">
-        <v>0.003858921520159978</v>
+        <v>3.858921520159978E-3</v>
       </c>
       <c r="H35">
-        <v>0.01123355589820547</v>
+        <v>1.1233555898205469E-2</v>
       </c>
       <c r="I35">
-        <v>0.04566836136034351</v>
+        <v>4.566836136034351E-2</v>
       </c>
       <c r="J35">
-        <v>0.02350961419668849</v>
+        <v>2.350961419668849E-2</v>
       </c>
       <c r="K35">
-        <v>0.169917033793156</v>
+        <v>0.16991703379315601</v>
       </c>
       <c r="L35">
-        <v>0.005833140061177951</v>
+        <v>5.8331400611779513E-3</v>
       </c>
       <c r="M35">
-        <v>0.001663520946151543</v>
+        <v>1.6635209461515429E-3</v>
       </c>
       <c r="N35">
-        <v>0.003691667590487555</v>
+        <v>3.6916675904875552E-3</v>
       </c>
       <c r="O35">
-        <v>0.03409245441249931</v>
+        <v>3.4092454412499307E-2</v>
       </c>
       <c r="P35">
         <v>0.2323771132779856</v>
@@ -2283,51 +2342,51 @@
         <v>0.1024648951456185</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>42675</v>
       </c>
       <c r="B36">
-        <v>0.2953594893607498</v>
+        <v>0.29535948936074979</v>
       </c>
       <c r="C36">
-        <v>0.01962468636370249</v>
+        <v>1.9624686363702491E-2</v>
       </c>
       <c r="D36">
-        <v>0.04667578044369331</v>
+        <v>4.6675780443693311E-2</v>
       </c>
       <c r="E36">
-        <v>0.003268365823783934</v>
+        <v>3.2683658237839339E-3</v>
       </c>
       <c r="F36">
-        <v>0.002054799483708624</v>
+        <v>2.0547994837086239E-3</v>
       </c>
       <c r="G36">
-        <v>0.003872563168683021</v>
+        <v>3.872563168683021E-3</v>
       </c>
       <c r="H36">
-        <v>0.01128114696365053</v>
+        <v>1.128114696365053E-2</v>
       </c>
       <c r="I36">
-        <v>0.04582359136756969</v>
+        <v>4.5823591367569687E-2</v>
       </c>
       <c r="J36">
-        <v>0.02353279124896181</v>
+        <v>2.353279124896181E-2</v>
       </c>
       <c r="K36">
         <v>0.1706814609959616</v>
       </c>
       <c r="L36">
-        <v>0.005929343128768295</v>
+        <v>5.9293431287682948E-3</v>
       </c>
       <c r="M36">
-        <v>0.001692381710193726</v>
+        <v>1.6923817101937261E-3</v>
       </c>
       <c r="N36">
-        <v>0.003752122209961131</v>
+        <v>3.752122209961131E-3</v>
       </c>
       <c r="O36">
-        <v>0.03461336673941815</v>
+        <v>3.4613366739418151E-2</v>
       </c>
       <c r="P36">
         <v>0.230278362119269</v>
@@ -2336,157 +2395,157 @@
         <v>0.1015597488719249</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>42705</v>
       </c>
       <c r="B37">
-        <v>-3.456805365409211E-16</v>
+        <v>-3.4568053654092109E-16</v>
       </c>
       <c r="C37">
-        <v>0.03346903997926793</v>
+        <v>3.346903997926793E-2</v>
       </c>
       <c r="D37">
-        <v>0.07996089911812447</v>
+        <v>7.996089911812447E-2</v>
       </c>
       <c r="E37">
-        <v>0.005550146129183042</v>
+        <v>5.5501461291830416E-3</v>
       </c>
       <c r="F37">
-        <v>0.003483508101662188</v>
+        <v>3.483508101662188E-3</v>
       </c>
       <c r="G37">
-        <v>0.006584703378141902</v>
+        <v>6.5847033781419022E-3</v>
       </c>
       <c r="H37">
-        <v>0.01913594744113485</v>
+        <v>1.9135947441134851E-2</v>
       </c>
       <c r="I37">
-        <v>0.07867563404727042</v>
+        <v>7.8675634047270418E-2</v>
       </c>
       <c r="J37">
-        <v>0.0331889302856694</v>
+        <v>3.3188930285669403E-2</v>
       </c>
       <c r="K37">
-        <v>0.2412555412242766</v>
+        <v>0.24125554122427659</v>
       </c>
       <c r="L37">
-        <v>0.008314729160945434</v>
+        <v>8.3147291609454339E-3</v>
       </c>
       <c r="M37">
-        <v>0.002377395163392134</v>
+        <v>2.3773951633921341E-3</v>
       </c>
       <c r="N37">
-        <v>0.005267246444589409</v>
+        <v>5.2672464445894093E-3</v>
       </c>
       <c r="O37">
-        <v>0.04873818528711221</v>
+        <v>4.8738185287112212E-2</v>
       </c>
       <c r="P37">
-        <v>0.3183713615231274</v>
+        <v>0.31837136152312739</v>
       </c>
       <c r="Q37">
         <v>0.1156267327161028</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>42736</v>
       </c>
       <c r="B38">
-        <v>0.2632100316664469</v>
+        <v>0.26321003166644691</v>
       </c>
       <c r="C38">
-        <v>0.02546403190871743</v>
+        <v>2.5464031908717429E-2</v>
       </c>
       <c r="D38">
-        <v>0.06086180264494038</v>
+        <v>6.0861802644940378E-2</v>
       </c>
       <c r="E38">
-        <v>0.004232927830794156</v>
+        <v>4.2329278307941557E-3</v>
       </c>
       <c r="F38">
-        <v>0.002657776674679319</v>
+        <v>2.6577766746793191E-3</v>
       </c>
       <c r="G38">
-        <v>0.005031127742410422</v>
+        <v>5.031127742410422E-3</v>
       </c>
       <c r="H38">
-        <v>0.01457830842615152</v>
+        <v>1.457830842615152E-2</v>
       </c>
       <c r="I38">
-        <v>0.05982569387962239</v>
+        <v>5.9825693879622388E-2</v>
       </c>
       <c r="J38">
-        <v>0.0239840194417405</v>
+        <v>2.3984019441740501E-2</v>
       </c>
       <c r="K38">
-        <v>0.1743853593874689</v>
+        <v>0.17438535938746891</v>
       </c>
       <c r="L38">
-        <v>0.005704028709666648</v>
+        <v>5.7040287096666482E-3</v>
       </c>
       <c r="M38">
-        <v>0.001635008524708899</v>
+        <v>1.635008524708899E-3</v>
       </c>
       <c r="N38">
-        <v>0.003607836877219193</v>
+        <v>3.6078368772191928E-3</v>
       </c>
       <c r="O38">
-        <v>0.03325199608001379</v>
+        <v>3.3251996080013793E-2</v>
       </c>
       <c r="P38">
-        <v>0.2153257174171072</v>
+        <v>0.21532571741710721</v>
       </c>
       <c r="Q38">
-        <v>0.1062443327883126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>0.10624433278831261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>42767</v>
       </c>
       <c r="B39">
-        <v>0.2602300159339531</v>
+        <v>0.26023001593395312</v>
       </c>
       <c r="C39">
-        <v>0.02652003350768899</v>
+        <v>2.652003350768899E-2</v>
       </c>
       <c r="D39">
-        <v>0.06338161408455978</v>
+        <v>6.3381614084559779E-2</v>
       </c>
       <c r="E39">
-        <v>0.004402051313403681</v>
+        <v>4.4020513134036812E-3</v>
       </c>
       <c r="F39">
-        <v>0.002769561062587766</v>
+        <v>2.7695610625877659E-3</v>
       </c>
       <c r="G39">
-        <v>0.005230138567462512</v>
+        <v>5.2301385674625124E-3</v>
       </c>
       <c r="H39">
-        <v>0.01512697439132715</v>
+        <v>1.5126974391327149E-2</v>
       </c>
       <c r="I39">
-        <v>0.06237292225746766</v>
+        <v>6.2372922257467663E-2</v>
       </c>
       <c r="J39">
-        <v>0.02359122393178029</v>
+        <v>2.359122393178029E-2</v>
       </c>
       <c r="K39">
-        <v>0.1714570151175868</v>
+        <v>0.17145701511758679</v>
       </c>
       <c r="L39">
-        <v>0.005753899724533355</v>
+        <v>5.753899724533355E-3</v>
       </c>
       <c r="M39">
-        <v>0.001652372621147072</v>
+        <v>1.652372621147072E-3</v>
       </c>
       <c r="N39">
-        <v>0.003644547238742805</v>
+        <v>3.6445472387428052E-3</v>
       </c>
       <c r="O39">
-        <v>0.03342982463451177</v>
+        <v>3.3429824634511773E-2</v>
       </c>
       <c r="P39">
         <v>0.2171603837743889</v>
@@ -2495,104 +2554,104 @@
         <v>0.1032774218388582</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>42795</v>
       </c>
       <c r="B40">
-        <v>0.2601105877125788</v>
+        <v>0.26011058771257878</v>
       </c>
       <c r="C40">
-        <v>0.02657121870663966</v>
+        <v>2.6571218706639661E-2</v>
       </c>
       <c r="D40">
-        <v>0.06349028075997373</v>
+        <v>6.3490280759973733E-2</v>
       </c>
       <c r="E40">
-        <v>0.004404429238665937</v>
+        <v>4.4044292386659373E-3</v>
       </c>
       <c r="F40">
-        <v>0.002771656313981917</v>
+        <v>2.7716563139819168E-3</v>
       </c>
       <c r="G40">
-        <v>0.005226036597726092</v>
+        <v>5.2260365977260916E-3</v>
       </c>
       <c r="H40">
-        <v>0.01511449419607813</v>
+        <v>1.511449419607813E-2</v>
       </c>
       <c r="I40">
-        <v>0.06254488312016133</v>
+        <v>6.2544883120161335E-2</v>
       </c>
       <c r="J40">
-        <v>0.02360330268587573</v>
+        <v>2.3603302685875731E-2</v>
       </c>
       <c r="K40">
-        <v>0.1715146669384557</v>
+        <v>0.17151466693845571</v>
       </c>
       <c r="L40">
-        <v>0.005804552906656041</v>
+        <v>5.8045529066560412E-3</v>
       </c>
       <c r="M40">
-        <v>0.00167031440565833</v>
+        <v>1.6703144056583301E-3</v>
       </c>
       <c r="N40">
-        <v>0.0036794201273637</v>
+        <v>3.6794201273637E-3</v>
       </c>
       <c r="O40">
-        <v>0.03357843039192426</v>
+        <v>3.3578430391924263E-2</v>
       </c>
       <c r="P40">
-        <v>0.2167704470179203</v>
+        <v>0.21677044701792031</v>
       </c>
       <c r="Q40">
-        <v>0.1031452788803403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>0.10314527888034029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>42826</v>
       </c>
       <c r="B41">
-        <v>0.2617366657201083</v>
+        <v>0.26173666572010829</v>
       </c>
       <c r="C41">
-        <v>0.02657796730959544</v>
+        <v>2.6577967309595441E-2</v>
       </c>
       <c r="D41">
-        <v>0.06355403633834517</v>
+        <v>6.3554036338345166E-2</v>
       </c>
       <c r="E41">
-        <v>0.004391026380850459</v>
+        <v>4.3910263808504589E-3</v>
       </c>
       <c r="F41">
-        <v>0.002763289613006204</v>
+        <v>2.7632896130062039E-3</v>
       </c>
       <c r="G41">
-        <v>0.005209563231478</v>
+        <v>5.2095632314780004E-3</v>
       </c>
       <c r="H41">
-        <v>0.01504376705786896</v>
+        <v>1.5043767057868959E-2</v>
       </c>
       <c r="I41">
-        <v>0.06272435736473699</v>
+        <v>6.2724357364736985E-2</v>
       </c>
       <c r="J41">
-        <v>0.02362565344813611</v>
+        <v>2.3625653448136111E-2</v>
       </c>
       <c r="K41">
         <v>0.1710514863120679</v>
       </c>
       <c r="L41">
-        <v>0.005897558699429151</v>
+        <v>5.8975586994291507E-3</v>
       </c>
       <c r="M41">
-        <v>0.001702104414208355</v>
+        <v>1.702104414208355E-3</v>
       </c>
       <c r="N41">
-        <v>0.003740293325678856</v>
+        <v>3.7402933256788558E-3</v>
       </c>
       <c r="O41">
-        <v>0.03387443121773668</v>
+        <v>3.3874431217736679E-2</v>
       </c>
       <c r="P41">
         <v>0.2152492732814961</v>
@@ -2601,51 +2660,51 @@
         <v>0.1028585262852576</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>42856</v>
       </c>
       <c r="B42">
-        <v>0.2614997190851668</v>
+        <v>0.26149971908516678</v>
       </c>
       <c r="C42">
-        <v>0.02655434880255934</v>
+        <v>2.655434880255934E-2</v>
       </c>
       <c r="D42">
-        <v>0.0635128377511287</v>
+        <v>6.3512837751128703E-2</v>
       </c>
       <c r="E42">
-        <v>0.004377856399216394</v>
+        <v>4.3778563992163937E-3</v>
       </c>
       <c r="F42">
-        <v>0.002755558515005897</v>
+        <v>2.7555585150058968E-3</v>
       </c>
       <c r="G42">
-        <v>0.005194388517720947</v>
+        <v>5.1943885177209471E-3</v>
       </c>
       <c r="H42">
-        <v>0.01499114870697744</v>
+        <v>1.4991148706977439E-2</v>
       </c>
       <c r="I42">
-        <v>0.06274823441476708</v>
+        <v>6.2748234414767082E-2</v>
       </c>
       <c r="J42">
-        <v>0.02372221014161453</v>
+        <v>2.372221014161453E-2</v>
       </c>
       <c r="K42">
         <v>0.1716221039730135</v>
       </c>
       <c r="L42">
-        <v>0.005924994768836055</v>
+        <v>5.924994768836055E-3</v>
       </c>
       <c r="M42">
-        <v>0.001712603986895547</v>
+        <v>1.7126039868955471E-3</v>
       </c>
       <c r="N42">
-        <v>0.003763260378289733</v>
+        <v>3.7632603782897329E-3</v>
       </c>
       <c r="O42">
-        <v>0.03395059105451285</v>
+        <v>3.3950591054512848E-2</v>
       </c>
       <c r="P42">
         <v>0.2150346715088422</v>
@@ -2654,475 +2713,475 @@
         <v>0.1026354719954527</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42887</v>
       </c>
       <c r="B43">
-        <v>0.2613586287401007</v>
+        <v>0.26135862874010068</v>
       </c>
       <c r="C43">
-        <v>0.02663722581987093</v>
+        <v>2.6637225819870929E-2</v>
       </c>
       <c r="D43">
-        <v>0.06373442966774487</v>
+        <v>6.3734429667744869E-2</v>
       </c>
       <c r="E43">
-        <v>0.004384778110576858</v>
+        <v>4.3847781105768582E-3</v>
       </c>
       <c r="F43">
-        <v>0.002760661091692374</v>
+        <v>2.7606610916923739E-3</v>
       </c>
       <c r="G43">
-        <v>0.005200622805027633</v>
+        <v>5.2006228050276333E-3</v>
       </c>
       <c r="H43">
-        <v>0.01499078361989117</v>
+        <v>1.499078361989117E-2</v>
       </c>
       <c r="I43">
-        <v>0.06303480986042777</v>
+        <v>6.3034809860427768E-2</v>
       </c>
       <c r="J43">
-        <v>0.02365873548852838</v>
+        <v>2.3658735488528381E-2</v>
       </c>
       <c r="K43">
         <v>0.1712094778558356</v>
       </c>
       <c r="L43">
-        <v>0.005954502228124246</v>
+        <v>5.9545022281242456E-3</v>
       </c>
       <c r="M43">
-        <v>0.001724097205556552</v>
+        <v>1.724097205556552E-3</v>
       </c>
       <c r="N43">
-        <v>0.003786159340515479</v>
+        <v>3.786159340515479E-3</v>
       </c>
       <c r="O43">
-        <v>0.03403053179379808</v>
+        <v>3.4030531793798079E-2</v>
       </c>
       <c r="P43">
-        <v>0.2153590776397525</v>
+        <v>0.21535907763975251</v>
       </c>
       <c r="Q43">
-        <v>0.1021754787325568</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>0.10217547873255679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>42917</v>
       </c>
       <c r="B44">
-        <v>0.2604739421376515</v>
+        <v>0.26047394213765152</v>
       </c>
       <c r="C44">
-        <v>0.02671451782117549</v>
+        <v>2.6714517821175489E-2</v>
       </c>
       <c r="D44">
-        <v>0.06399629813062721</v>
+        <v>6.3996298130627211E-2</v>
       </c>
       <c r="E44">
-        <v>0.004390964322307112</v>
+        <v>4.3909643223071122E-3</v>
       </c>
       <c r="F44">
-        <v>0.002762163214972726</v>
+        <v>2.762163214972726E-3</v>
       </c>
       <c r="G44">
-        <v>0.005213229957605493</v>
+        <v>5.2132299576054929E-3</v>
       </c>
       <c r="H44">
-        <v>0.01500428534105259</v>
+        <v>1.500428534105259E-2</v>
       </c>
       <c r="I44">
-        <v>0.06334017311586476</v>
+        <v>6.3340173115864762E-2</v>
       </c>
       <c r="J44">
-        <v>0.02368170619967526</v>
+        <v>2.3681706199675259E-2</v>
       </c>
       <c r="K44">
-        <v>0.171019633456804</v>
+        <v>0.17101963345680399</v>
       </c>
       <c r="L44">
-        <v>0.005975292007638564</v>
+        <v>5.9752920076385644E-3</v>
       </c>
       <c r="M44">
-        <v>0.0017312112756674</v>
+        <v>1.7312112756674E-3</v>
       </c>
       <c r="N44">
-        <v>0.003801529797824094</v>
+        <v>3.8015297978240938E-3</v>
       </c>
       <c r="O44">
-        <v>0.0341520519754655</v>
+        <v>3.4152051975465503E-2</v>
       </c>
       <c r="P44">
-        <v>0.2155712980405406</v>
+        <v>0.21557129804054059</v>
       </c>
       <c r="Q44">
         <v>0.1021717032051281</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>42948</v>
       </c>
       <c r="B45">
-        <v>0.260971586467712</v>
+        <v>0.26097158646771201</v>
       </c>
       <c r="C45">
-        <v>0.02670178308446026</v>
+        <v>2.6701783084460261E-2</v>
       </c>
       <c r="D45">
-        <v>0.06396228026886164</v>
+        <v>6.3962280268861638E-2</v>
       </c>
       <c r="E45">
-        <v>0.004380529983428084</v>
+        <v>4.380529983428084E-3</v>
       </c>
       <c r="F45">
-        <v>0.002759147348931094</v>
+        <v>2.7591473489310941E-3</v>
       </c>
       <c r="G45">
-        <v>0.005206040636733513</v>
+        <v>5.2060406367335126E-3</v>
       </c>
       <c r="H45">
-        <v>0.01499331486598179</v>
+        <v>1.499331486598179E-2</v>
       </c>
       <c r="I45">
-        <v>0.06332503051824742</v>
+        <v>6.3325030518247422E-2</v>
       </c>
       <c r="J45">
-        <v>0.0236631631103264</v>
+        <v>2.3663163110326398E-2</v>
       </c>
       <c r="K45">
-        <v>0.1710228761289763</v>
+        <v>0.17102287612897629</v>
       </c>
       <c r="L45">
-        <v>0.006046392049592048</v>
+        <v>6.0463920495920477E-3</v>
       </c>
       <c r="M45">
-        <v>0.00175395149603717</v>
+        <v>1.75395149603717E-3</v>
       </c>
       <c r="N45">
-        <v>0.003849407133326884</v>
+        <v>3.8494071333268838E-3</v>
       </c>
       <c r="O45">
-        <v>0.03450246281173319</v>
+        <v>3.4502462811733192E-2</v>
       </c>
       <c r="P45">
         <v>0.2147232204331278</v>
       </c>
       <c r="Q45">
-        <v>0.1021388136625244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>0.10213881366252441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>42979</v>
       </c>
       <c r="B46">
-        <v>0.266121553047162</v>
+        <v>0.26612155304716201</v>
       </c>
       <c r="C46">
-        <v>0.02556531061019487</v>
+        <v>2.5565310610194871E-2</v>
       </c>
       <c r="D46">
-        <v>0.06130475655340004</v>
+        <v>6.1304756553400043E-2</v>
       </c>
       <c r="E46">
-        <v>0.004191253667389986</v>
+        <v>4.191253667389986E-3</v>
       </c>
       <c r="F46">
-        <v>0.00264205633566234</v>
+        <v>2.6420563356623402E-3</v>
       </c>
       <c r="G46">
-        <v>0.004983207275571849</v>
+        <v>4.9832072755718491E-3</v>
       </c>
       <c r="H46">
-        <v>0.01433773574446389</v>
+        <v>1.4337735744463891E-2</v>
       </c>
       <c r="I46">
-        <v>0.06071581414050684</v>
+        <v>6.0715814140506842E-2</v>
       </c>
       <c r="J46">
-        <v>0.02354343634796518</v>
+        <v>2.3543436347965178E-2</v>
       </c>
       <c r="K46">
         <v>0.1699761653535207</v>
       </c>
       <c r="L46">
-        <v>0.006134923604705427</v>
+        <v>6.1349236047054268E-3</v>
       </c>
       <c r="M46">
-        <v>0.001781357585050438</v>
+        <v>1.7813575850504379E-3</v>
       </c>
       <c r="N46">
-        <v>0.003907556994535993</v>
+        <v>3.907556994535993E-3</v>
       </c>
       <c r="O46">
-        <v>0.03498130112269671</v>
+        <v>3.4981301122696713E-2</v>
       </c>
       <c r="P46">
-        <v>0.216672525142543</v>
+        <v>0.21667252514254301</v>
       </c>
       <c r="Q46">
-        <v>0.1031410464746308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>0.10314104647463079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43009</v>
       </c>
       <c r="B47">
-        <v>0.2675000158266592</v>
+        <v>0.26750001582665922</v>
       </c>
       <c r="C47">
-        <v>0.02533429380916759</v>
+        <v>2.5334293809167591E-2</v>
       </c>
       <c r="D47">
-        <v>0.06076448923400161</v>
+        <v>6.0764489234001608E-2</v>
       </c>
       <c r="E47">
-        <v>0.004142218237087684</v>
+        <v>4.1422182370876841E-3</v>
       </c>
       <c r="F47">
-        <v>0.002610609664743581</v>
+        <v>2.6106096647435812E-3</v>
       </c>
       <c r="G47">
-        <v>0.004927433165384206</v>
+        <v>4.9274331653842056E-3</v>
       </c>
       <c r="H47">
-        <v>0.01418290711429013</v>
+        <v>1.4182907114290129E-2</v>
       </c>
       <c r="I47">
-        <v>0.06023561486166359</v>
+        <v>6.0235614861663588E-2</v>
       </c>
       <c r="J47">
-        <v>0.02361589964062227</v>
+        <v>2.361589964062227E-2</v>
       </c>
       <c r="K47">
-        <v>0.1702140672896622</v>
+        <v>0.17021406728966221</v>
       </c>
       <c r="L47">
-        <v>0.006223987204947539</v>
+        <v>6.2239872049475392E-3</v>
       </c>
       <c r="M47">
-        <v>0.001808891898764286</v>
+        <v>1.8088918987642861E-3</v>
       </c>
       <c r="N47">
-        <v>0.003969126436007275</v>
+        <v>3.9691264360072753E-3</v>
       </c>
       <c r="O47">
-        <v>0.03548534619269553</v>
+        <v>3.5485346192695527E-2</v>
       </c>
       <c r="P47">
-        <v>0.2163705474534857</v>
+        <v>0.21637054745348569</v>
       </c>
       <c r="Q47">
-        <v>0.1026145519708176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>0.10261455197081761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>43040</v>
       </c>
       <c r="B48">
-        <v>0.2677987115907622</v>
+        <v>0.26779871159076218</v>
       </c>
       <c r="C48">
-        <v>0.02535428594952528</v>
+        <v>2.5354285949525279E-2</v>
       </c>
       <c r="D48">
-        <v>0.06081791958064643</v>
+        <v>6.0817919580646432E-2</v>
       </c>
       <c r="E48">
-        <v>0.004143667215400784</v>
+        <v>4.1436672154007842E-3</v>
       </c>
       <c r="F48">
-        <v>0.002612157985864429</v>
+        <v>2.6121579858644291E-3</v>
       </c>
       <c r="G48">
-        <v>0.004928706108411203</v>
+        <v>4.9287061084112033E-3</v>
       </c>
       <c r="H48">
-        <v>0.01419352860669325</v>
+        <v>1.419352860669325E-2</v>
       </c>
       <c r="I48">
-        <v>0.06029414561380204</v>
+        <v>6.0294145613802037E-2</v>
       </c>
       <c r="J48">
-        <v>0.02360006262753693</v>
+        <v>2.360006262753693E-2</v>
       </c>
       <c r="K48">
         <v>0.1701403686038766</v>
       </c>
       <c r="L48">
-        <v>0.006233185326396318</v>
+        <v>6.2331853263963184E-3</v>
       </c>
       <c r="M48">
-        <v>0.001811868723537312</v>
+        <v>1.811868723537312E-3</v>
       </c>
       <c r="N48">
-        <v>0.003977562524463191</v>
+        <v>3.9775625244631912E-3</v>
       </c>
       <c r="O48">
-        <v>0.03554983122122073</v>
+        <v>3.5549831221220733E-2</v>
       </c>
       <c r="P48">
-        <v>0.2160755235615635</v>
+        <v>0.21607552356156351</v>
       </c>
       <c r="Q48">
-        <v>0.1024684747603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>0.10246847476029999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>43070</v>
       </c>
       <c r="B49">
-        <v>0.2676893920018394</v>
+        <v>0.26768939200183939</v>
       </c>
       <c r="C49">
-        <v>0.02536153570414625</v>
+        <v>2.5361535704146249E-2</v>
       </c>
       <c r="D49">
-        <v>0.0608329690194858</v>
+        <v>6.0832969019485802E-2</v>
       </c>
       <c r="E49">
-        <v>0.004142691366287536</v>
+        <v>4.1426913662875363E-3</v>
       </c>
       <c r="F49">
-        <v>0.002610895840774704</v>
+        <v>2.610895840774704E-3</v>
       </c>
       <c r="G49">
-        <v>0.004934492124042293</v>
+        <v>4.9344921240422933E-3</v>
       </c>
       <c r="H49">
-        <v>0.01418087225587418</v>
+        <v>1.418087225587418E-2</v>
       </c>
       <c r="I49">
-        <v>0.06032555313665333</v>
+        <v>6.0325553136653332E-2</v>
       </c>
       <c r="J49">
-        <v>0.02360412402415461</v>
+        <v>2.360412402415461E-2</v>
       </c>
       <c r="K49">
-        <v>0.1702011571601729</v>
+        <v>0.17020115716017289</v>
       </c>
       <c r="L49">
-        <v>0.00623277870741148</v>
+        <v>6.2327787074114797E-3</v>
       </c>
       <c r="M49">
-        <v>0.001812641639822955</v>
+        <v>1.8126416398229551E-3</v>
       </c>
       <c r="N49">
-        <v>0.00397919425727209</v>
+        <v>3.9791942572720901E-3</v>
       </c>
       <c r="O49">
-        <v>0.03554421414824256</v>
+        <v>3.5544214148242562E-2</v>
       </c>
       <c r="P49">
-        <v>0.2159792597009116</v>
+        <v>0.21597925970091161</v>
       </c>
       <c r="Q49">
         <v>0.1025682289129085</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43101</v>
       </c>
       <c r="B50">
-        <v>0.2769218780170921</v>
+        <v>0.27692187801709212</v>
       </c>
       <c r="C50">
-        <v>0.0248774594630498</v>
+        <v>2.4877459463049801E-2</v>
       </c>
       <c r="D50">
-        <v>0.0596704725668901</v>
+        <v>5.96704725668901E-2</v>
       </c>
       <c r="E50">
-        <v>0.004056304386893185</v>
+        <v>4.0563043868931852E-3</v>
       </c>
       <c r="F50">
-        <v>0.002553778760525345</v>
+        <v>2.553778760525345E-3</v>
       </c>
       <c r="G50">
-        <v>0.004836988941845247</v>
+        <v>4.8369889418452472E-3</v>
       </c>
       <c r="H50">
-        <v>0.01391820261765202</v>
+        <v>1.3918202617652021E-2</v>
       </c>
       <c r="I50">
-        <v>0.05918265732302411</v>
+        <v>5.9182657323024107E-2</v>
       </c>
       <c r="J50">
-        <v>0.02344870520714168</v>
+        <v>2.3448705207141679E-2</v>
       </c>
       <c r="K50">
-        <v>0.1696515130080916</v>
+        <v>0.16965151300809159</v>
       </c>
       <c r="L50">
-        <v>0.006058871698925166</v>
+        <v>6.0588716989251664E-3</v>
       </c>
       <c r="M50">
-        <v>0.001761414381464503</v>
+        <v>1.761414381464503E-3</v>
       </c>
       <c r="N50">
-        <v>0.003875646929381584</v>
+        <v>3.8756469293815838E-3</v>
       </c>
       <c r="O50">
-        <v>0.03461411509496399</v>
+        <v>3.4614115094963989E-2</v>
       </c>
       <c r="P50">
-        <v>0.2094605900991232</v>
+        <v>0.20946059009912321</v>
       </c>
       <c r="Q50">
         <v>0.1051114015039359</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>43132</v>
       </c>
       <c r="B51">
-        <v>0.2758721885762929</v>
+        <v>0.27587218857629292</v>
       </c>
       <c r="C51">
-        <v>0.02492331321246589</v>
+        <v>2.4923313212465891E-2</v>
       </c>
       <c r="D51">
-        <v>0.05979785156437836</v>
+        <v>5.9797851564378363E-2</v>
       </c>
       <c r="E51">
-        <v>0.004053475746252838</v>
+        <v>4.0534757462528381E-3</v>
       </c>
       <c r="F51">
-        <v>0.002552149004909151</v>
+        <v>2.5521490049091509E-3</v>
       </c>
       <c r="G51">
-        <v>0.004842801358340682</v>
+        <v>4.8428013583406817E-3</v>
       </c>
       <c r="H51">
-        <v>0.01395076622018453</v>
+        <v>1.395076622018453E-2</v>
       </c>
       <c r="I51">
-        <v>0.05932197244715706</v>
+        <v>5.9321972447157062E-2</v>
       </c>
       <c r="J51">
-        <v>0.0234519372769122</v>
+        <v>2.3451937276912201E-2</v>
       </c>
       <c r="K51">
         <v>0.1698848740017837</v>
       </c>
       <c r="L51">
-        <v>0.0060627275670506</v>
+        <v>6.0627275670505996E-3</v>
       </c>
       <c r="M51">
-        <v>0.001761347869682812</v>
+        <v>1.761347869682812E-3</v>
       </c>
       <c r="N51">
-        <v>0.003881815157822517</v>
+        <v>3.881815157822517E-3</v>
       </c>
       <c r="O51">
-        <v>0.03471743256569693</v>
+        <v>3.4717432565696933E-2</v>
       </c>
       <c r="P51">
         <v>0.2092529545169895</v>
@@ -3131,51 +3190,51 @@
         <v>0.1056723929140802</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>43160</v>
       </c>
       <c r="B52">
-        <v>0.2759186856617544</v>
+        <v>0.27591868566175443</v>
       </c>
       <c r="C52">
-        <v>0.02493322350331454</v>
+        <v>2.493322350331454E-2</v>
       </c>
       <c r="D52">
-        <v>0.05977335982446696</v>
+        <v>5.9773359824466958E-2</v>
       </c>
       <c r="E52">
-        <v>0.004036787394807993</v>
+        <v>4.0367873948079927E-3</v>
       </c>
       <c r="F52">
-        <v>0.002543718446706672</v>
+        <v>2.543718446706672E-3</v>
       </c>
       <c r="G52">
-        <v>0.004825564853129362</v>
+        <v>4.8255648531293624E-3</v>
       </c>
       <c r="H52">
-        <v>0.01392172814444287</v>
+        <v>1.392172814444287E-2</v>
       </c>
       <c r="I52">
-        <v>0.05937878448869462</v>
+        <v>5.9378784488694623E-2</v>
       </c>
       <c r="J52">
-        <v>0.02345746308419246</v>
+        <v>2.345746308419246E-2</v>
       </c>
       <c r="K52">
-        <v>0.1701205853992387</v>
+        <v>0.17012058539923869</v>
       </c>
       <c r="L52">
-        <v>0.006083775255255959</v>
+        <v>6.0837752552559592E-3</v>
       </c>
       <c r="M52">
-        <v>0.001770375454364847</v>
+        <v>1.770375454364847E-3</v>
       </c>
       <c r="N52">
-        <v>0.003891726929539438</v>
+        <v>3.8917269295394379E-3</v>
       </c>
       <c r="O52">
-        <v>0.03470811917538167</v>
+        <v>3.470811917538167E-2</v>
       </c>
       <c r="P52">
         <v>0.2084349533882458</v>
@@ -3184,263 +3243,263 @@
         <v>0.1062011489964638</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43191</v>
       </c>
       <c r="B53">
-        <v>0.2760254254064559</v>
+        <v>0.27602542540645592</v>
       </c>
       <c r="C53">
-        <v>0.02490685558771063</v>
+        <v>2.4906855587710629E-2</v>
       </c>
       <c r="D53">
-        <v>0.05982321652378757</v>
+        <v>5.9823216523787567E-2</v>
       </c>
       <c r="E53">
-        <v>0.004034742943894193</v>
+        <v>4.0347429438941929E-3</v>
       </c>
       <c r="F53">
-        <v>0.002542078018965901</v>
+        <v>2.542078018965901E-3</v>
       </c>
       <c r="G53">
-        <v>0.004824950634727352</v>
+        <v>4.824950634727352E-3</v>
       </c>
       <c r="H53">
-        <v>0.01391744600432293</v>
+        <v>1.3917446004322929E-2</v>
       </c>
       <c r="I53">
-        <v>0.05941085450958783</v>
+        <v>5.9410854509587829E-2</v>
       </c>
       <c r="J53">
-        <v>0.0234381495769228</v>
+        <v>2.34381495769228E-2</v>
       </c>
       <c r="K53">
-        <v>0.1700112121588508</v>
+        <v>0.17001121215885079</v>
       </c>
       <c r="L53">
-        <v>0.006152634792439981</v>
+        <v>6.1526347924399814E-3</v>
       </c>
       <c r="M53">
-        <v>0.001792855892128686</v>
+        <v>1.7928558921286859E-3</v>
       </c>
       <c r="N53">
-        <v>0.003935335826919794</v>
+        <v>3.9353358269197938E-3</v>
       </c>
       <c r="O53">
-        <v>0.03498784606358131</v>
+        <v>3.498784606358131E-2</v>
       </c>
       <c r="P53">
-        <v>0.2078125516547356</v>
+        <v>0.20781255165473561</v>
       </c>
       <c r="Q53">
-        <v>0.106383844404969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>0.10638384440496899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43221</v>
       </c>
       <c r="B54">
-        <v>0.2880358184898752</v>
+        <v>0.28803581848987519</v>
       </c>
       <c r="C54">
-        <v>0.01932081179015381</v>
+        <v>1.9320811790153811E-2</v>
       </c>
       <c r="D54">
-        <v>0.0463820793910362</v>
+        <v>4.6382079391036203E-2</v>
       </c>
       <c r="E54">
-        <v>0.003124111084099233</v>
+        <v>3.1241110840992329E-3</v>
       </c>
       <c r="F54">
-        <v>0.001966936479578148</v>
+        <v>1.9669364795781479E-3</v>
       </c>
       <c r="G54">
-        <v>0.003738582255390678</v>
+        <v>3.7385822553906781E-3</v>
       </c>
       <c r="H54">
-        <v>0.01078741600504487</v>
+        <v>1.078741600504487E-2</v>
       </c>
       <c r="I54">
-        <v>0.04608584535707709</v>
+        <v>4.608584535707709E-2</v>
       </c>
       <c r="J54">
-        <v>0.02626176988501997</v>
+        <v>2.6261769885019971E-2</v>
       </c>
       <c r="K54">
-        <v>0.1909337540396767</v>
+        <v>0.19093375403967669</v>
       </c>
       <c r="L54">
-        <v>0.006210276891604869</v>
+        <v>6.2102768916048687E-3</v>
       </c>
       <c r="M54">
-        <v>0.001810132811257571</v>
+        <v>1.810132811257571E-3</v>
       </c>
       <c r="N54">
-        <v>0.00397499799303956</v>
+        <v>3.9749979930395604E-3</v>
       </c>
       <c r="O54">
-        <v>0.0353023847669588</v>
+        <v>3.5302384766958801E-2</v>
       </c>
       <c r="P54">
-        <v>0.2100899413573716</v>
+        <v>0.21008994135737161</v>
       </c>
       <c r="Q54">
-        <v>0.1059751414028157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>0.10597514140281571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>43252</v>
       </c>
       <c r="B55">
-        <v>0.2760496259830892</v>
+        <v>0.27604962598308919</v>
       </c>
       <c r="C55">
-        <v>0.02490779519199095</v>
+        <v>2.4907795191990951E-2</v>
       </c>
       <c r="D55">
-        <v>0.05980068663953565</v>
+        <v>5.9800686639535652E-2</v>
       </c>
       <c r="E55">
-        <v>0.004018851751580428</v>
+        <v>4.0188517515804276E-3</v>
       </c>
       <c r="F55">
-        <v>0.002529383109777899</v>
+        <v>2.5293831097778991E-3</v>
       </c>
       <c r="G55">
-        <v>0.0048114017484928</v>
+        <v>4.8114017484927997E-3</v>
       </c>
       <c r="H55">
-        <v>0.01385629167658042</v>
+        <v>1.385629167658042E-2</v>
       </c>
       <c r="I55">
-        <v>0.05949255354509506</v>
+        <v>5.9492553545095063E-2</v>
       </c>
       <c r="J55">
-        <v>0.02340587439622455</v>
+        <v>2.340587439622455E-2</v>
       </c>
       <c r="K55">
-        <v>0.1703861817663329</v>
+        <v>0.17038618176633291</v>
       </c>
       <c r="L55">
-        <v>0.006168689889031988</v>
+        <v>6.1686898890319884E-3</v>
       </c>
       <c r="M55">
-        <v>0.001806491057887418</v>
+        <v>1.8064910578874181E-3</v>
       </c>
       <c r="N55">
-        <v>0.003964675104977709</v>
+        <v>3.9646751049777088E-3</v>
       </c>
       <c r="O55">
-        <v>0.03456152494002832</v>
+        <v>3.4561524940028322E-2</v>
       </c>
       <c r="P55">
-        <v>0.2075814208601053</v>
+        <v>0.20758142086010531</v>
       </c>
       <c r="Q55">
         <v>0.1066585523392697</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>43282</v>
       </c>
       <c r="B56">
-        <v>0.2756190099178294</v>
+        <v>0.27561900991782939</v>
       </c>
       <c r="C56">
-        <v>0.02493099692581779</v>
+        <v>2.4930996925817791E-2</v>
       </c>
       <c r="D56">
-        <v>0.05984879871066356</v>
+        <v>5.9848798710663557E-2</v>
       </c>
       <c r="E56">
-        <v>0.004016895255168147</v>
+        <v>4.0168952551681474E-3</v>
       </c>
       <c r="F56">
-        <v>0.002529298418910866</v>
+        <v>2.5292984189108662E-3</v>
       </c>
       <c r="G56">
-        <v>0.004814260455955292</v>
+        <v>4.8142604559552916E-3</v>
       </c>
       <c r="H56">
-        <v>0.01385392062133755</v>
+        <v>1.385392062133755E-2</v>
       </c>
       <c r="I56">
-        <v>0.05956542088510949</v>
+        <v>5.9565420885109487E-2</v>
       </c>
       <c r="J56">
-        <v>0.0234317482965449</v>
+        <v>2.3431748296544899E-2</v>
       </c>
       <c r="K56">
-        <v>0.1704196044092977</v>
+        <v>0.17041960440929771</v>
       </c>
       <c r="L56">
-        <v>0.006190158585258604</v>
+        <v>6.190158585258604E-3</v>
       </c>
       <c r="M56">
-        <v>0.001814949353740055</v>
+        <v>1.814949353740055E-3</v>
       </c>
       <c r="N56">
-        <v>0.003983877190352791</v>
+        <v>3.9838771903527911E-3</v>
       </c>
       <c r="O56">
-        <v>0.03461969786822477</v>
+        <v>3.4619697868224768E-2</v>
       </c>
       <c r="P56">
-        <v>0.207545494360845</v>
+        <v>0.20754549436084499</v>
       </c>
       <c r="Q56">
         <v>0.1068158687449437</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43313</v>
       </c>
       <c r="B57">
-        <v>0.2755828875436842</v>
+        <v>0.27558288754368421</v>
       </c>
       <c r="C57">
-        <v>0.0249672379357216</v>
+        <v>2.4967237935721601E-2</v>
       </c>
       <c r="D57">
-        <v>0.05991483775512985</v>
+        <v>5.9914837755129853E-2</v>
       </c>
       <c r="E57">
-        <v>0.00401748662710072</v>
+        <v>4.0174866271007201E-3</v>
       </c>
       <c r="F57">
-        <v>0.002526887918119735</v>
+        <v>2.526887918119735E-3</v>
       </c>
       <c r="G57">
-        <v>0.004816240488279494</v>
+        <v>4.8162404882794944E-3</v>
       </c>
       <c r="H57">
-        <v>0.01387167786346494</v>
+        <v>1.3871677863464941E-2</v>
       </c>
       <c r="I57">
-        <v>0.05964978279388659</v>
+        <v>5.9649782793886587E-2</v>
       </c>
       <c r="J57">
-        <v>0.02341856019307509</v>
+        <v>2.3418560193075089E-2</v>
       </c>
       <c r="K57">
-        <v>0.1703173901738362</v>
+        <v>0.17031739017383621</v>
       </c>
       <c r="L57">
-        <v>0.006183409089447131</v>
+        <v>6.1834090894471311E-3</v>
       </c>
       <c r="M57">
-        <v>0.001813269110234423</v>
+        <v>1.8132691102344231E-3</v>
       </c>
       <c r="N57">
-        <v>0.003981738991764763</v>
+        <v>3.9817389917647626E-3</v>
       </c>
       <c r="O57">
-        <v>0.03458897960285115</v>
+        <v>3.458897960285115E-2</v>
       </c>
       <c r="P57">
         <v>0.2075093278233073</v>
@@ -3449,422 +3508,422 @@
         <v>0.1068402860900968</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>43344</v>
       </c>
       <c r="B58">
-        <v>0.2749883946254102</v>
+        <v>0.27498839462541019</v>
       </c>
       <c r="C58">
-        <v>0.0250540479616405</v>
+        <v>2.5054047961640499E-2</v>
       </c>
       <c r="D58">
-        <v>0.0601110500088984</v>
+        <v>6.0111050008898402E-2</v>
       </c>
       <c r="E58">
-        <v>0.004033343954564348</v>
+        <v>4.0333439545643477E-3</v>
       </c>
       <c r="F58">
-        <v>0.002538847618564872</v>
+        <v>2.538847618564872E-3</v>
       </c>
       <c r="G58">
-        <v>0.004836705286974753</v>
+        <v>4.8367052869747532E-3</v>
       </c>
       <c r="H58">
-        <v>0.01391847240559576</v>
+        <v>1.391847240559576E-2</v>
       </c>
       <c r="I58">
-        <v>0.05983772870483917</v>
+        <v>5.9837728704839173E-2</v>
       </c>
       <c r="J58">
-        <v>0.02343300675636459</v>
+        <v>2.3433006756364588E-2</v>
       </c>
       <c r="K58">
-        <v>0.1703473966827004</v>
+        <v>0.17034739668270041</v>
       </c>
       <c r="L58">
-        <v>0.006201904147769888</v>
+        <v>6.2019041477698877E-3</v>
       </c>
       <c r="M58">
-        <v>0.001820364849892411</v>
+        <v>1.8203648498924111E-3</v>
       </c>
       <c r="N58">
-        <v>0.004000348248853541</v>
+        <v>4.000348248853541E-3</v>
       </c>
       <c r="O58">
-        <v>0.03460106545833454</v>
+        <v>3.4601065458334537E-2</v>
       </c>
       <c r="P58">
-        <v>0.2074682364856121</v>
+        <v>0.20746823648561211</v>
       </c>
       <c r="Q58">
         <v>0.1068090868039849</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>43374</v>
       </c>
       <c r="B59">
-        <v>0.2747122282577351</v>
+        <v>0.27471222825773511</v>
       </c>
       <c r="C59">
-        <v>0.02505778441595933</v>
+        <v>2.5057784415959329E-2</v>
       </c>
       <c r="D59">
-        <v>0.06012882756233962</v>
+        <v>6.0128827562339622E-2</v>
       </c>
       <c r="E59">
-        <v>0.00402581942326233</v>
+        <v>4.0258194232623296E-3</v>
       </c>
       <c r="F59">
-        <v>0.002533049444730148</v>
+        <v>2.533049444730148E-3</v>
       </c>
       <c r="G59">
-        <v>0.004831844905676492</v>
+        <v>4.8318449056764922E-3</v>
       </c>
       <c r="H59">
-        <v>0.01389162822115506</v>
+        <v>1.3891628221155059E-2</v>
       </c>
       <c r="I59">
-        <v>0.05990426998347492</v>
+        <v>5.9904269983474923E-2</v>
       </c>
       <c r="J59">
-        <v>0.02343713342786895</v>
+        <v>2.3437133427868951E-2</v>
       </c>
       <c r="K59">
         <v>0.170458355227701</v>
       </c>
       <c r="L59">
-        <v>0.006205386040832219</v>
+        <v>6.2053860408322189E-3</v>
       </c>
       <c r="M59">
-        <v>0.001821866726914394</v>
+        <v>1.821866726914394E-3</v>
       </c>
       <c r="N59">
-        <v>0.004005748771444301</v>
+        <v>4.0057487714443007E-3</v>
       </c>
       <c r="O59">
-        <v>0.03459598880738724</v>
+        <v>3.4595988807387242E-2</v>
       </c>
       <c r="P59">
-        <v>0.2072625396352102</v>
+        <v>0.20726253963521021</v>
       </c>
       <c r="Q59">
-        <v>0.1071275291483088</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>0.10712752914830879</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43405</v>
       </c>
       <c r="B60">
-        <v>0.2751564976323403</v>
+        <v>0.27515649763234029</v>
       </c>
       <c r="C60">
-        <v>0.02510562335561487</v>
+        <v>2.5105623355614871E-2</v>
       </c>
       <c r="D60">
-        <v>0.06017626774155239</v>
+        <v>6.0176267741552388E-2</v>
       </c>
       <c r="E60">
-        <v>0.004016390316421788</v>
+        <v>4.016390316421788E-3</v>
       </c>
       <c r="F60">
-        <v>0.00252793479471026</v>
+        <v>2.5279347947102602E-3</v>
       </c>
       <c r="G60">
-        <v>0.004828185111419648</v>
+        <v>4.8281851114196483E-3</v>
       </c>
       <c r="H60">
-        <v>0.0138824292283848</v>
+        <v>1.3882429228384801E-2</v>
       </c>
       <c r="I60">
-        <v>0.06002695164623074</v>
+        <v>6.0026951646230738E-2</v>
       </c>
       <c r="J60">
-        <v>0.02339726627572735</v>
+        <v>2.3397266275727351E-2</v>
       </c>
       <c r="K60">
-        <v>0.170445467348198</v>
+        <v>0.17044546734819799</v>
       </c>
       <c r="L60">
-        <v>0.006188091168524671</v>
+        <v>6.1880911685246714E-3</v>
       </c>
       <c r="M60">
-        <v>0.001818641834614278</v>
+        <v>1.818641834614278E-3</v>
       </c>
       <c r="N60">
-        <v>0.003997953265568538</v>
+        <v>3.9979532655685379E-3</v>
       </c>
       <c r="O60">
-        <v>0.03442429466804036</v>
+        <v>3.442429466804036E-2</v>
       </c>
       <c r="P60">
-        <v>0.2065451076623734</v>
+        <v>0.20654510766237341</v>
       </c>
       <c r="Q60">
-        <v>0.1074628979502786</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>0.10746289795027859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>43435</v>
       </c>
       <c r="B61">
-        <v>0.2744638688466248</v>
+        <v>0.27446386884662483</v>
       </c>
       <c r="C61">
-        <v>0.02518369992304501</v>
+        <v>2.5183699923045009E-2</v>
       </c>
       <c r="D61">
-        <v>0.0603131749297107</v>
+        <v>6.0313174929710701E-2</v>
       </c>
       <c r="E61">
-        <v>0.004026621408532674</v>
+        <v>4.026621408532674E-3</v>
       </c>
       <c r="F61">
-        <v>0.002536222340848619</v>
+        <v>2.5362223408486192E-3</v>
       </c>
       <c r="G61">
-        <v>0.004841509181921051</v>
+        <v>4.8415091819210511E-3</v>
       </c>
       <c r="H61">
-        <v>0.01390032699149957</v>
+        <v>1.3900326991499569E-2</v>
       </c>
       <c r="I61">
-        <v>0.06019219492995379</v>
+        <v>6.0192194929953792E-2</v>
       </c>
       <c r="J61">
-        <v>0.02338836902251796</v>
+        <v>2.3388369022517959E-2</v>
       </c>
       <c r="K61">
-        <v>0.1701945670161054</v>
+        <v>0.17019456701610541</v>
       </c>
       <c r="L61">
-        <v>0.006233265551301871</v>
+        <v>6.2332655513018713E-3</v>
       </c>
       <c r="M61">
-        <v>0.00183422427231984</v>
+        <v>1.83422427231984E-3</v>
       </c>
       <c r="N61">
-        <v>0.004027565568128941</v>
+        <v>4.0275655681289409E-3</v>
       </c>
       <c r="O61">
-        <v>0.03453585241325784</v>
+        <v>3.4535852413257843E-2</v>
       </c>
       <c r="P61">
-        <v>0.2069401559872152</v>
+        <v>0.20694015598721521</v>
       </c>
       <c r="Q61">
         <v>0.1073883816170166</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>43466</v>
       </c>
       <c r="B62">
-        <v>0.2754986268991448</v>
+        <v>0.27549862689914478</v>
       </c>
       <c r="C62">
-        <v>0.02525383527113097</v>
+        <v>2.5253835271130971E-2</v>
       </c>
       <c r="D62">
-        <v>0.06024498502082002</v>
+        <v>6.024498502082002E-2</v>
       </c>
       <c r="E62">
-        <v>0.004028015888835811</v>
+        <v>4.0280158888358107E-3</v>
       </c>
       <c r="F62">
-        <v>0.002536769166576549</v>
+        <v>2.5367691665765489E-3</v>
       </c>
       <c r="G62">
-        <v>0.004840502421021212</v>
+        <v>4.8405024210212118E-3</v>
       </c>
       <c r="H62">
-        <v>0.01388113971002877</v>
+        <v>1.3881139710028771E-2</v>
       </c>
       <c r="I62">
-        <v>0.06021239310548866</v>
+        <v>6.0212393105488662E-2</v>
       </c>
       <c r="J62">
-        <v>0.02340030893866436</v>
+        <v>2.340030893866436E-2</v>
       </c>
       <c r="K62">
-        <v>0.1703484806857812</v>
+        <v>0.17034848068578121</v>
       </c>
       <c r="L62">
-        <v>0.006250241238217203</v>
+        <v>6.250241238217203E-3</v>
       </c>
       <c r="M62">
-        <v>0.001842713143004524</v>
+        <v>1.842713143004524E-3</v>
       </c>
       <c r="N62">
-        <v>0.00404268302987746</v>
+        <v>4.0426830298774599E-3</v>
       </c>
       <c r="O62">
-        <v>0.03441376213159596</v>
+        <v>3.4413762131595957E-2</v>
       </c>
       <c r="P62">
         <v>0.2060021971338854</v>
       </c>
       <c r="Q62">
-        <v>0.1072033462159269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>0.10720334621592691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>43497</v>
       </c>
       <c r="B63">
-        <v>0.2716330661524233</v>
+        <v>0.27163306615242327</v>
       </c>
       <c r="C63">
-        <v>0.02558583515000743</v>
+        <v>2.5585835150007431E-2</v>
       </c>
       <c r="D63">
-        <v>0.06079168086645866</v>
+        <v>6.0791680866458662E-2</v>
       </c>
       <c r="E63">
-        <v>0.004077381703330627</v>
+        <v>4.077381703330627E-3</v>
       </c>
       <c r="F63">
-        <v>0.002568193219893566</v>
+        <v>2.5681932198935659E-3</v>
       </c>
       <c r="G63">
-        <v>0.004896548943716494</v>
+        <v>4.8965489437164944E-3</v>
       </c>
       <c r="H63">
-        <v>0.0139868672238559</v>
+        <v>1.3986867223855899E-2</v>
       </c>
       <c r="I63">
-        <v>0.06084852492566951</v>
+        <v>6.0848524925669507E-2</v>
       </c>
       <c r="J63">
-        <v>0.02353095009070388</v>
+        <v>2.353095009070388E-2</v>
       </c>
       <c r="K63">
-        <v>0.1707553147972304</v>
+        <v>0.17075531479723041</v>
       </c>
       <c r="L63">
-        <v>0.006362201374640948</v>
+        <v>6.3622013746409481E-3</v>
       </c>
       <c r="M63">
-        <v>0.001882939564727405</v>
+        <v>1.882939564727405E-3</v>
       </c>
       <c r="N63">
-        <v>0.004122301908932331</v>
+        <v>4.1223019089323314E-3</v>
       </c>
       <c r="O63">
-        <v>0.03465767629965295</v>
+        <v>3.4657676299652947E-2</v>
       </c>
       <c r="P63">
-        <v>0.2077987878057105</v>
+        <v>0.20779878780571051</v>
       </c>
       <c r="Q63">
         <v>0.1065017299730466</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43525</v>
       </c>
       <c r="B64">
-        <v>0.2757243436888178</v>
+        <v>0.27572434368881782</v>
       </c>
       <c r="C64">
-        <v>0.02535253139914252</v>
+        <v>2.5352531399142519E-2</v>
       </c>
       <c r="D64">
-        <v>0.06019219463371894</v>
+        <v>6.0192194633718943E-2</v>
       </c>
       <c r="E64">
-        <v>0.004037943790978901</v>
+        <v>4.0379437909789009E-3</v>
       </c>
       <c r="F64">
-        <v>0.002545465679387426</v>
+        <v>2.5454656793874259E-3</v>
       </c>
       <c r="G64">
-        <v>0.004850550722456582</v>
+        <v>4.8505507224565819E-3</v>
       </c>
       <c r="H64">
-        <v>0.01384785182585478</v>
+        <v>1.384785182585478E-2</v>
       </c>
       <c r="I64">
-        <v>0.06026291401418377</v>
+        <v>6.0262914014183773E-2</v>
       </c>
       <c r="J64">
-        <v>0.02346153115021077</v>
+        <v>2.3461531150210772E-2</v>
       </c>
       <c r="K64">
-        <v>0.170210798657362</v>
+        <v>0.17021079865736199</v>
       </c>
       <c r="L64">
-        <v>0.006306063790148259</v>
+        <v>6.3060637901482591E-3</v>
       </c>
       <c r="M64">
-        <v>0.001868415312669977</v>
+        <v>1.8684153126699769E-3</v>
       </c>
       <c r="N64">
-        <v>0.004085428008853203</v>
+        <v>4.0854280088532032E-3</v>
       </c>
       <c r="O64">
-        <v>0.03425596747086351</v>
+        <v>3.4255967470863513E-2</v>
       </c>
       <c r="P64">
-        <v>0.2056461807464547</v>
+        <v>0.20564618074645469</v>
       </c>
       <c r="Q64">
-        <v>0.1073518191088969</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>0.10735181910889691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>43556</v>
       </c>
       <c r="B65">
-        <v>0.2760970059531944</v>
+        <v>0.27609700595319442</v>
       </c>
       <c r="C65">
-        <v>0.02543221556482054</v>
+        <v>2.5432215564820539E-2</v>
       </c>
       <c r="D65">
-        <v>0.06036624679336611</v>
+        <v>6.0366246793366107E-2</v>
       </c>
       <c r="E65">
-        <v>0.004047206263972792</v>
+        <v>4.0472062639727918E-3</v>
       </c>
       <c r="F65">
-        <v>0.00255234307492339</v>
+        <v>2.5523430749233899E-3</v>
       </c>
       <c r="G65">
-        <v>0.004864111463830791</v>
+        <v>4.8641114638307906E-3</v>
       </c>
       <c r="H65">
-        <v>0.01385123721406551</v>
+        <v>1.3851237214065511E-2</v>
       </c>
       <c r="I65">
-        <v>0.06048356434139418</v>
+        <v>6.048356434139418E-2</v>
       </c>
       <c r="J65">
-        <v>0.02350970012532148</v>
+        <v>2.350970012532148E-2</v>
       </c>
       <c r="K65">
-        <v>0.170400469711692</v>
+        <v>0.17040046971169201</v>
       </c>
       <c r="L65">
-        <v>0.00631505722472905</v>
+        <v>6.3150572247290503E-3</v>
       </c>
       <c r="M65">
-        <v>0.001874584733624045</v>
+        <v>1.8745847336240451E-3</v>
       </c>
       <c r="N65">
-        <v>0.004094816295510162</v>
+        <v>4.0948162955101617E-3</v>
       </c>
       <c r="O65">
-        <v>0.03408095631922476</v>
+        <v>3.408095631922476E-2</v>
       </c>
       <c r="P65">
         <v>0.204563884934721</v>
@@ -3873,51 +3932,51 @@
         <v>0.1074665999856098</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43586</v>
       </c>
       <c r="B66">
-        <v>0.271877057829163</v>
+        <v>0.27187705782916299</v>
       </c>
       <c r="C66">
-        <v>0.02570369572229912</v>
+        <v>2.5703695722299118E-2</v>
       </c>
       <c r="D66">
-        <v>0.06102073547576922</v>
+        <v>6.1020735475769222E-2</v>
       </c>
       <c r="E66">
-        <v>0.004087636444360686</v>
+        <v>4.0876364443606858E-3</v>
       </c>
       <c r="F66">
-        <v>0.002577590462439027</v>
+        <v>2.577590462439027E-3</v>
       </c>
       <c r="G66">
-        <v>0.004912050640095672</v>
+        <v>4.912050640095672E-3</v>
       </c>
       <c r="H66">
-        <v>0.01397254718073594</v>
+        <v>1.397254718073594E-2</v>
       </c>
       <c r="I66">
-        <v>0.06117460647043702</v>
+        <v>6.1174606470437022E-2</v>
       </c>
       <c r="J66">
-        <v>0.02357142037874962</v>
+        <v>2.3571420378749621E-2</v>
       </c>
       <c r="K66">
-        <v>0.1709120362603636</v>
+        <v>0.17091203626036361</v>
       </c>
       <c r="L66">
-        <v>0.006420267466481561</v>
+        <v>6.4202674664815612E-3</v>
       </c>
       <c r="M66">
-        <v>0.001908136053171535</v>
+        <v>1.908136053171535E-3</v>
       </c>
       <c r="N66">
-        <v>0.004163075325712252</v>
+        <v>4.1630753257122519E-3</v>
       </c>
       <c r="O66">
-        <v>0.03457238656586271</v>
+        <v>3.4572386565862707E-2</v>
       </c>
       <c r="P66">
         <v>0.2063088493711292</v>
@@ -3926,378 +3985,378 @@
         <v>0.1068179083532298</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43617</v>
       </c>
       <c r="B67">
-        <v>0.2781716022268603</v>
+        <v>0.27817160222686033</v>
       </c>
       <c r="C67">
-        <v>0.0254293294989779</v>
+        <v>2.5429329498977901E-2</v>
       </c>
       <c r="D67">
-        <v>0.06038418232342301</v>
+        <v>6.0384182323423012E-2</v>
       </c>
       <c r="E67">
-        <v>0.004044011363904252</v>
+        <v>4.0440113639042524E-3</v>
       </c>
       <c r="F67">
-        <v>0.002553143288147918</v>
+        <v>2.5531432881479182E-3</v>
       </c>
       <c r="G67">
-        <v>0.004859995665272249</v>
+        <v>4.8599956652722494E-3</v>
       </c>
       <c r="H67">
-        <v>0.01380812114495298</v>
+        <v>1.380812114495298E-2</v>
       </c>
       <c r="I67">
-        <v>0.06054824036012351</v>
+        <v>6.0548240360123511E-2</v>
       </c>
       <c r="J67">
-        <v>0.0234764485987783</v>
+        <v>2.3476448598778302E-2</v>
       </c>
       <c r="K67">
         <v>0.1700270022475667</v>
       </c>
       <c r="L67">
-        <v>0.006325565277697678</v>
+        <v>6.3255652776976782E-3</v>
       </c>
       <c r="M67">
-        <v>0.001885347412219454</v>
+        <v>1.885347412219454E-3</v>
       </c>
       <c r="N67">
-        <v>0.004111178542074475</v>
+        <v>4.1111785420744748E-3</v>
       </c>
       <c r="O67">
-        <v>0.03370951219367927</v>
+        <v>3.3709512193679271E-2</v>
       </c>
       <c r="P67">
-        <v>0.2024729273824759</v>
+        <v>0.20247292738247591</v>
       </c>
       <c r="Q67">
-        <v>0.1081933924738464</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>0.10819339247384641</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>43647</v>
       </c>
       <c r="B68">
-        <v>0.2927744627391906</v>
+        <v>0.29277446273919061</v>
       </c>
       <c r="C68">
-        <v>0.02028129388915453</v>
+        <v>2.028129388915453E-2</v>
       </c>
       <c r="D68">
-        <v>0.04817299228894056</v>
+        <v>4.8172992288940557E-2</v>
       </c>
       <c r="E68">
-        <v>0.003217736750370363</v>
+        <v>3.2177367503703632E-3</v>
       </c>
       <c r="F68">
-        <v>0.002033163065580066</v>
+        <v>2.0331630655800658E-3</v>
       </c>
       <c r="G68">
-        <v>0.003872807748119584</v>
+        <v>3.8728077481195839E-3</v>
       </c>
       <c r="H68">
-        <v>0.01097889255946173</v>
+        <v>1.0978892559461729E-2</v>
       </c>
       <c r="I68">
-        <v>0.04835168605456336</v>
+        <v>4.8351686054563359E-2</v>
       </c>
       <c r="J68">
-        <v>0.02607121202317376</v>
+        <v>2.6071212023173761E-2</v>
       </c>
       <c r="K68">
-        <v>0.1883948813146445</v>
+        <v>0.18839488131464449</v>
       </c>
       <c r="L68">
-        <v>0.006338761074861889</v>
+        <v>6.3387610748618893E-3</v>
       </c>
       <c r="M68">
-        <v>0.001895372889469468</v>
+        <v>1.8953728894694679E-3</v>
       </c>
       <c r="N68">
-        <v>0.004128505004586619</v>
+        <v>4.1285050045866186E-3</v>
       </c>
       <c r="O68">
-        <v>0.0334080458483684</v>
+        <v>3.3408045848368401E-2</v>
       </c>
       <c r="P68">
-        <v>0.2004777262155177</v>
+        <v>0.20047772621551771</v>
       </c>
       <c r="Q68">
         <v>0.1096024605339974</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>43678</v>
       </c>
       <c r="B69">
-        <v>0.2922064861000589</v>
+        <v>0.29220648610005889</v>
       </c>
       <c r="C69">
-        <v>0.02030818224149755</v>
+        <v>2.0308182241497549E-2</v>
       </c>
       <c r="D69">
-        <v>0.04826140775216841</v>
+        <v>4.826140775216841E-2</v>
       </c>
       <c r="E69">
-        <v>0.003209664066368049</v>
+        <v>3.2096640663680492E-3</v>
       </c>
       <c r="F69">
-        <v>0.002030353273402278</v>
+        <v>2.0303532734022782E-3</v>
       </c>
       <c r="G69">
-        <v>0.003868677440707158</v>
+        <v>3.8686774407071579E-3</v>
       </c>
       <c r="H69">
-        <v>0.01095446624222812</v>
+        <v>1.0954466242228121E-2</v>
       </c>
       <c r="I69">
-        <v>0.04850642897096034</v>
+        <v>4.8506428970960337E-2</v>
       </c>
       <c r="J69">
-        <v>0.0261194420813248</v>
+        <v>2.6119442081324801E-2</v>
       </c>
       <c r="K69">
-        <v>0.1886019516975947</v>
+        <v>0.18860195169759469</v>
       </c>
       <c r="L69">
-        <v>0.006388650857521418</v>
+        <v>6.3886508575214176E-3</v>
       </c>
       <c r="M69">
-        <v>0.001913759915534311</v>
+        <v>1.913759915534311E-3</v>
       </c>
       <c r="N69">
-        <v>0.004170529248532361</v>
+        <v>4.1705292485323606E-3</v>
       </c>
       <c r="O69">
-        <v>0.03345054758585746</v>
+        <v>3.3450547585857457E-2</v>
       </c>
       <c r="P69">
         <v>0.2003416030721577</v>
       </c>
       <c r="Q69">
-        <v>0.1096678494540863</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>0.10966784945408629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>43709</v>
       </c>
       <c r="B70">
-        <v>0.2936969209762106</v>
+        <v>0.29369692097621058</v>
       </c>
       <c r="C70">
-        <v>0.02061320447808939</v>
+        <v>2.0613204478089391E-2</v>
       </c>
       <c r="D70">
-        <v>0.04894775740751067</v>
+        <v>4.8947757407510673E-2</v>
       </c>
       <c r="E70">
-        <v>0.003246803043804232</v>
+        <v>3.2468030438042319E-3</v>
       </c>
       <c r="F70">
-        <v>0.002055183516415077</v>
+        <v>2.0551835164150769E-3</v>
       </c>
       <c r="G70">
-        <v>0.003919450755521241</v>
+        <v>3.9194507555212407E-3</v>
       </c>
       <c r="H70">
-        <v>0.011060354225657</v>
+        <v>1.1060354225657E-2</v>
       </c>
       <c r="I70">
-        <v>0.04927917034420259</v>
+        <v>4.9279170344202587E-2</v>
       </c>
       <c r="J70">
-        <v>0.02623181471830515</v>
+        <v>2.6231814718305151E-2</v>
       </c>
       <c r="K70">
         <v>0.189908716479984</v>
       </c>
       <c r="L70">
-        <v>0.006306235320834847</v>
+        <v>6.3062353208348468E-3</v>
       </c>
       <c r="M70">
-        <v>0.001899502163352061</v>
+        <v>1.899502163352061E-3</v>
       </c>
       <c r="N70">
-        <v>0.004143200947897181</v>
+        <v>4.1432009478971814E-3</v>
       </c>
       <c r="O70">
-        <v>0.03239659250716663</v>
+        <v>3.239659250716663E-2</v>
       </c>
       <c r="P70">
-        <v>0.1967353564357915</v>
+        <v>0.19673535643579149</v>
       </c>
       <c r="Q70">
         <v>0.1095597366792579</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43739</v>
       </c>
       <c r="B71">
-        <v>0.2967003863183799</v>
+        <v>0.29670038631837992</v>
       </c>
       <c r="C71">
-        <v>0.02105632336712553</v>
+        <v>2.105632336712553E-2</v>
       </c>
       <c r="D71">
-        <v>0.04998765496807217</v>
+        <v>4.998765496807217E-2</v>
       </c>
       <c r="E71">
-        <v>0.003298561067495985</v>
+        <v>3.2985610674959851E-3</v>
       </c>
       <c r="F71">
-        <v>0.00208549806591838</v>
+        <v>2.08549806591838E-3</v>
       </c>
       <c r="G71">
-        <v>0.003994203000914562</v>
+        <v>3.9942030009145618E-3</v>
       </c>
       <c r="H71">
-        <v>0.01125926041692308</v>
+        <v>1.1259260416923079E-2</v>
       </c>
       <c r="I71">
-        <v>0.0504064557839457</v>
+        <v>5.0406455783945703E-2</v>
       </c>
       <c r="J71">
-        <v>0.0260092873162575</v>
+        <v>2.6009287316257498E-2</v>
       </c>
       <c r="K71">
-        <v>0.1887482901661321</v>
+        <v>0.18874829016613209</v>
       </c>
       <c r="L71">
-        <v>0.006122321715336335</v>
+        <v>6.1223217153363353E-3</v>
       </c>
       <c r="M71">
-        <v>0.001850347858617723</v>
+        <v>1.8503478586177229E-3</v>
       </c>
       <c r="N71">
-        <v>0.004042881504373076</v>
+        <v>4.0428815043730762E-3</v>
       </c>
       <c r="O71">
-        <v>0.03122015639629453</v>
+        <v>3.1220156396294531E-2</v>
       </c>
       <c r="P71">
-        <v>0.1916857815501976</v>
+        <v>0.19168578155019761</v>
       </c>
       <c r="Q71">
         <v>0.1115325905040159</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>43770</v>
       </c>
       <c r="B72">
-        <v>0.29732730295757</v>
+        <v>0.29732730295756998</v>
       </c>
       <c r="C72">
-        <v>0.02130463489836885</v>
+        <v>2.1304634898368851E-2</v>
       </c>
       <c r="D72">
-        <v>0.05058227476144376</v>
+        <v>5.0582274761443759E-2</v>
       </c>
       <c r="E72">
-        <v>0.003335303028589477</v>
+        <v>3.3353030285894771E-3</v>
       </c>
       <c r="F72">
-        <v>0.002108893577982416</v>
+        <v>2.108893577982416E-3</v>
       </c>
       <c r="G72">
-        <v>0.004040834522852885</v>
+        <v>4.0408345228528852E-3</v>
       </c>
       <c r="H72">
-        <v>0.01136547786689368</v>
+        <v>1.1365477866893681E-2</v>
       </c>
       <c r="I72">
-        <v>0.05103640066349415</v>
+        <v>5.1036400663494151E-2</v>
       </c>
       <c r="J72">
-        <v>0.02593240188146318</v>
+        <v>2.5932401881463181E-2</v>
       </c>
       <c r="K72">
-        <v>0.1882573076850771</v>
+        <v>0.18825730768507709</v>
       </c>
       <c r="L72">
-        <v>0.006109230495016174</v>
+        <v>6.1092304950161741E-3</v>
       </c>
       <c r="M72">
-        <v>0.001853375038800533</v>
+        <v>1.8533750388005331E-3</v>
       </c>
       <c r="N72">
-        <v>0.004044822465481533</v>
+        <v>4.0448224654815327E-3</v>
       </c>
       <c r="O72">
-        <v>0.03086050534812808</v>
+        <v>3.0860505348128078E-2</v>
       </c>
       <c r="P72">
         <v>0.1892481364291016</v>
       </c>
       <c r="Q72">
-        <v>0.1125930983797366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>0.11259309837973661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>43800</v>
       </c>
       <c r="B73">
-        <v>0.2992007648462308</v>
+        <v>0.29920076484623082</v>
       </c>
       <c r="C73">
-        <v>0.02132264958193452</v>
+        <v>2.132264958193452E-2</v>
       </c>
       <c r="D73">
-        <v>0.05062462189791454</v>
+        <v>5.0624621897914543E-2</v>
       </c>
       <c r="E73">
-        <v>0.003334092835660317</v>
+        <v>3.3340928356603169E-3</v>
       </c>
       <c r="F73">
-        <v>0.002109982436749773</v>
+        <v>2.1099824367497729E-3</v>
       </c>
       <c r="G73">
-        <v>0.004047446685317664</v>
+        <v>4.0474466853176643E-3</v>
       </c>
       <c r="H73">
-        <v>0.01137854528469119</v>
+        <v>1.1378545284691189E-2</v>
       </c>
       <c r="I73">
-        <v>0.05107720423743012</v>
+        <v>5.1077204237430118E-2</v>
       </c>
       <c r="J73">
-        <v>0.02596518236395137</v>
+        <v>2.5965182363951369E-2</v>
       </c>
       <c r="K73">
-        <v>0.1887148405502933</v>
+        <v>0.18871484055029331</v>
       </c>
       <c r="L73">
-        <v>0.006044912476985118</v>
+        <v>6.0449124769851176E-3</v>
       </c>
       <c r="M73">
-        <v>0.001835660644420291</v>
+        <v>1.835660644420291E-3</v>
       </c>
       <c r="N73">
-        <v>0.004010777678790834</v>
+        <v>4.0107776787908344E-3</v>
       </c>
       <c r="O73">
-        <v>0.03051629571074194</v>
+        <v>3.051629571074194E-2</v>
       </c>
       <c r="P73">
-        <v>0.1877750969207787</v>
+        <v>0.18777509692077871</v>
       </c>
       <c r="Q73">
         <v>0.1120419258481108</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>43831</v>
       </c>
@@ -4305,361 +4364,361 @@
         <v>0.2990713288244688</v>
       </c>
       <c r="C74">
-        <v>0.02135278193427543</v>
+        <v>2.1352781934275429E-2</v>
       </c>
       <c r="D74">
-        <v>0.05067405155655012</v>
+        <v>5.0674051556550123E-2</v>
       </c>
       <c r="E74">
-        <v>0.003336009331161971</v>
+        <v>3.3360093311619711E-3</v>
       </c>
       <c r="F74">
-        <v>0.00211231836151558</v>
+        <v>2.1123183615155798E-3</v>
       </c>
       <c r="G74">
-        <v>0.004052264489416815</v>
+        <v>4.0522644894168151E-3</v>
       </c>
       <c r="H74">
-        <v>0.01137985733272728</v>
+        <v>1.137985733272728E-2</v>
       </c>
       <c r="I74">
-        <v>0.05114638397600391</v>
+        <v>5.1146383976003913E-2</v>
       </c>
       <c r="J74">
-        <v>0.02597937137925041</v>
+        <v>2.597937137925041E-2</v>
       </c>
       <c r="K74">
         <v>0.1891657938882243</v>
       </c>
       <c r="L74">
-        <v>0.006037434036552489</v>
+        <v>6.0374340365524888E-3</v>
       </c>
       <c r="M74">
-        <v>0.001836826386274866</v>
+        <v>1.836826386274866E-3</v>
       </c>
       <c r="N74">
-        <v>0.004021115110097127</v>
+        <v>4.0211151100971272E-3</v>
       </c>
       <c r="O74">
-        <v>0.03045164266043211</v>
+        <v>3.0451642660432109E-2</v>
       </c>
       <c r="P74">
         <v>0.1874110958913292</v>
       </c>
       <c r="Q74">
-        <v>0.1119717248417196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>0.11197172484171961</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>43862</v>
       </c>
       <c r="B75">
-        <v>0.283582506964365</v>
+        <v>0.28358250696436499</v>
       </c>
       <c r="C75">
-        <v>0.02604376417098406</v>
+        <v>2.6043764170984061E-2</v>
       </c>
       <c r="D75">
-        <v>0.06182957305501039</v>
+        <v>6.1829573055010391E-2</v>
       </c>
       <c r="E75">
-        <v>0.004070920104139589</v>
+        <v>4.0709201041395889E-3</v>
       </c>
       <c r="F75">
-        <v>0.002577400544434769</v>
+        <v>2.5774005444347691E-3</v>
       </c>
       <c r="G75">
-        <v>0.004950537296879268</v>
+        <v>4.9505372968792682E-3</v>
       </c>
       <c r="H75">
-        <v>0.01387831595912228</v>
+        <v>1.387831595912228E-2</v>
       </c>
       <c r="I75">
-        <v>0.06239616332141856</v>
+        <v>6.2396163321418563E-2</v>
       </c>
       <c r="J75">
-        <v>0.02340989742731584</v>
+        <v>2.3409897427315841E-2</v>
       </c>
       <c r="K75">
-        <v>0.1708707581888518</v>
+        <v>0.17087075818885181</v>
       </c>
       <c r="L75">
-        <v>0.006240142315484051</v>
+        <v>6.2401423154840509E-3</v>
       </c>
       <c r="M75">
-        <v>0.001900366067940452</v>
+        <v>1.900366067940452E-3</v>
       </c>
       <c r="N75">
-        <v>0.004162225364433128</v>
+        <v>4.1622253644331281E-3</v>
       </c>
       <c r="O75">
-        <v>0.03148464815063304</v>
+        <v>3.1484648150633038E-2</v>
       </c>
       <c r="P75">
-        <v>0.193992409290376</v>
+        <v>0.19399240929037601</v>
       </c>
       <c r="Q75">
         <v>0.1086103717786121</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>43891</v>
       </c>
       <c r="B76">
-        <v>0.3005203302910934</v>
+        <v>0.30052033029109337</v>
       </c>
       <c r="C76">
-        <v>0.02155869132181953</v>
+        <v>2.1558691321819531E-2</v>
       </c>
       <c r="D76">
-        <v>0.05097878723473508</v>
+        <v>5.0978787234735083E-2</v>
       </c>
       <c r="E76">
-        <v>0.0033499420550111</v>
+        <v>3.3499420550111001E-3</v>
       </c>
       <c r="F76">
-        <v>0.002122216266474083</v>
+        <v>2.1222162664740829E-3</v>
       </c>
       <c r="G76">
-        <v>0.004076978452749811</v>
+        <v>4.0769784527498109E-3</v>
       </c>
       <c r="H76">
-        <v>0.01142449321169963</v>
+        <v>1.1424493211699629E-2</v>
       </c>
       <c r="I76">
-        <v>0.05156384857061994</v>
+        <v>5.1563848570619943E-2</v>
       </c>
       <c r="J76">
-        <v>0.02590999152215772</v>
+        <v>2.590999152215772E-2</v>
       </c>
       <c r="K76">
-        <v>0.1893592611524038</v>
+        <v>0.18935926115240381</v>
       </c>
       <c r="L76">
-        <v>0.006055278304639805</v>
+        <v>6.0552783046398046E-3</v>
       </c>
       <c r="M76">
-        <v>0.001853697319069374</v>
+        <v>1.8536973190693741E-3</v>
       </c>
       <c r="N76">
-        <v>0.004059828306211584</v>
+        <v>4.0598283062115836E-3</v>
       </c>
       <c r="O76">
-        <v>0.03015115265792327</v>
+        <v>3.0151152657923268E-2</v>
       </c>
       <c r="P76">
-        <v>0.1863059163141723</v>
+        <v>0.18630591631417229</v>
       </c>
       <c r="Q76">
         <v>0.1107095870192196</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>43922</v>
       </c>
       <c r="B77">
-        <v>-1.286329043490287E-11</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0.03773915118575039</v>
+        <v>3.7739151185750393E-2</v>
       </c>
       <c r="D77">
-        <v>0.07859897367259006</v>
+        <v>7.8598973672590056E-2</v>
       </c>
       <c r="E77">
-        <v>0.008811077309350735</v>
+        <v>8.8110773093507348E-3</v>
       </c>
       <c r="F77">
-        <v>0.006014504245294579</v>
+        <v>6.0145042452945793E-3</v>
       </c>
       <c r="G77">
-        <v>0.0122754390284563</v>
+        <v>1.2275439028456301E-2</v>
       </c>
       <c r="H77">
-        <v>0.02199310000579763</v>
+        <v>2.1993100005797631E-2</v>
       </c>
       <c r="I77">
-        <v>0.06724400426944122</v>
+        <v>6.7244004269441215E-2</v>
       </c>
       <c r="J77">
-        <v>0.03293326911107119</v>
+        <v>3.2933269111071188E-2</v>
       </c>
       <c r="K77">
         <v>0.2287388646503051</v>
       </c>
       <c r="L77">
-        <v>0.01000604541991783</v>
+        <v>1.000604541991783E-2</v>
       </c>
       <c r="M77">
-        <v>0.003070995264200327</v>
+        <v>3.070995264200327E-3</v>
       </c>
       <c r="N77">
-        <v>0.006899552700144398</v>
+        <v>6.899552700144398E-3</v>
       </c>
       <c r="O77">
-        <v>0.05127038481987672</v>
+        <v>5.1270384819876717E-2</v>
       </c>
       <c r="P77">
-        <v>0.3160903737073879</v>
+        <v>0.31609037370738791</v>
       </c>
       <c r="Q77">
-        <v>0.1183142646232792</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>0.11831426462327919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>43952</v>
       </c>
       <c r="B78">
-        <v>-7.568137682594157E-12</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.03599724343428559</v>
+        <v>3.5997243434285592E-2</v>
       </c>
       <c r="D78">
-        <v>0.07595338735877891</v>
+        <v>7.5953387358778907E-2</v>
       </c>
       <c r="E78">
-        <v>0.008311089160121944</v>
+        <v>8.3110891601219442E-3</v>
       </c>
       <c r="F78">
-        <v>0.005699266188117046</v>
+        <v>5.699266188117046E-3</v>
       </c>
       <c r="G78">
-        <v>0.01173601626805675</v>
+        <v>1.1736016268056751E-2</v>
       </c>
       <c r="H78">
-        <v>0.02091137459841802</v>
+        <v>2.091137459841802E-2</v>
       </c>
       <c r="I78">
-        <v>0.06529288457835077</v>
+        <v>6.5292884578350766E-2</v>
       </c>
       <c r="J78">
-        <v>0.03353371425311283</v>
+        <v>3.3533714253112828E-2</v>
       </c>
       <c r="K78">
-        <v>0.2314344652081144</v>
+        <v>0.23143446520811439</v>
       </c>
       <c r="L78">
-        <v>0.01023350033278734</v>
+        <v>1.0233500332787341E-2</v>
       </c>
       <c r="M78">
-        <v>0.003140422076780058</v>
+        <v>3.1404220767800579E-3</v>
       </c>
       <c r="N78">
-        <v>0.007073236623584895</v>
+        <v>7.0732366235848948E-3</v>
       </c>
       <c r="O78">
-        <v>0.05279029146219198</v>
+        <v>5.2790291462191982E-2</v>
       </c>
       <c r="P78">
-        <v>0.3216836297148352</v>
+        <v>0.32168362971483522</v>
       </c>
       <c r="Q78">
         <v>0.1162094787500326</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>43983</v>
       </c>
       <c r="B79">
-        <v>-4.562241941383399E-15</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0.03599671121997193</v>
+        <v>3.599671121997193E-2</v>
       </c>
       <c r="D79">
-        <v>0.0758620637961947</v>
+        <v>7.5862063796194701E-2</v>
       </c>
       <c r="E79">
-        <v>0.00827224553454242</v>
+        <v>8.27224553454242E-3</v>
       </c>
       <c r="F79">
-        <v>0.005673863810757973</v>
+        <v>5.6738638107579733E-3</v>
       </c>
       <c r="G79">
-        <v>0.01170930381131993</v>
+        <v>1.170930381131993E-2</v>
       </c>
       <c r="H79">
-        <v>0.0209128937520819</v>
+        <v>2.0912893752081899E-2</v>
       </c>
       <c r="I79">
-        <v>0.06529046810746443</v>
+        <v>6.5290468107464431E-2</v>
       </c>
       <c r="J79">
-        <v>0.03352536803463142</v>
+        <v>3.3525368034631423E-2</v>
       </c>
       <c r="K79">
         <v>0.231518089635743</v>
       </c>
       <c r="L79">
-        <v>0.01020182866974687</v>
+        <v>1.020182866974687E-2</v>
       </c>
       <c r="M79">
-        <v>0.003128817554781119</v>
+        <v>3.1288175547811189E-3</v>
       </c>
       <c r="N79">
-        <v>0.007077275753207365</v>
+        <v>7.0772757532073646E-3</v>
       </c>
       <c r="O79">
-        <v>0.05288024289892565</v>
+        <v>5.288024289892565E-2</v>
       </c>
       <c r="P79">
-        <v>0.321887338753772</v>
+        <v>0.32188733875377201</v>
       </c>
       <c r="Q79">
-        <v>0.1160634886668638</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>0.11606348866686381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>44013</v>
       </c>
       <c r="B80">
-        <v>-1.162462822398758E-11</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.03640646083644161</v>
+        <v>3.6406460836441612E-2</v>
       </c>
       <c r="D80">
-        <v>0.07634766854859074</v>
+        <v>7.6347668548590736E-2</v>
       </c>
       <c r="E80">
-        <v>0.00831477550856404</v>
+        <v>8.3147755085640398E-3</v>
       </c>
       <c r="F80">
-        <v>0.005710573987926295</v>
+        <v>5.7105739879262946E-3</v>
       </c>
       <c r="G80">
-        <v>0.01176302249879119</v>
+        <v>1.176302249879119E-2</v>
       </c>
       <c r="H80">
-        <v>0.02106756786979588</v>
+        <v>2.106756786979588E-2</v>
       </c>
       <c r="I80">
-        <v>0.06589818951995495</v>
+        <v>6.589818951995495E-2</v>
       </c>
       <c r="J80">
-        <v>0.03358347701642459</v>
+        <v>3.3583477016424591E-2</v>
       </c>
       <c r="K80">
         <v>0.232328581707933</v>
       </c>
       <c r="L80">
-        <v>0.01009981182579261</v>
+        <v>1.009981182579261E-2</v>
       </c>
       <c r="M80">
-        <v>0.003096595675414592</v>
+        <v>3.096595675414592E-3</v>
       </c>
       <c r="N80">
-        <v>0.007025190743774883</v>
+        <v>7.0251907437748834E-3</v>
       </c>
       <c r="O80">
-        <v>0.05261702092430397</v>
+        <v>5.2617020924303967E-2</v>
       </c>
       <c r="P80">
         <v>0.3196717653799544</v>
@@ -4668,157 +4727,157 @@
         <v>0.1160692979679618</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>44044</v>
       </c>
       <c r="B81">
-        <v>-7.913680612097275E-15</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.03313319163299404</v>
+        <v>3.3133191632994038E-2</v>
       </c>
       <c r="D81">
-        <v>0.06944782488768161</v>
+        <v>6.9447824887681614E-2</v>
       </c>
       <c r="E81">
-        <v>0.007556122392577963</v>
+        <v>7.5561223925779634E-3</v>
       </c>
       <c r="F81">
-        <v>0.005189514136183614</v>
+        <v>5.189514136183614E-3</v>
       </c>
       <c r="G81">
-        <v>0.01069350599915757</v>
+        <v>1.069350599915757E-2</v>
       </c>
       <c r="H81">
-        <v>0.01917071985999998</v>
+        <v>1.917071985999998E-2</v>
       </c>
       <c r="I81">
-        <v>0.05997115413275653</v>
+        <v>5.9971154132756527E-2</v>
       </c>
       <c r="J81">
-        <v>0.03558476069777436</v>
+        <v>3.5584760697774359E-2</v>
       </c>
       <c r="K81">
-        <v>0.2462868206534145</v>
+        <v>0.24628682065341451</v>
       </c>
       <c r="L81">
-        <v>0.01001805756216122</v>
+        <v>1.0018057562161221E-2</v>
       </c>
       <c r="M81">
-        <v>0.003070883367600031</v>
+        <v>3.0708833676000311E-3</v>
       </c>
       <c r="N81">
-        <v>0.00697372650326986</v>
+        <v>6.9737265032698602E-3</v>
       </c>
       <c r="O81">
-        <v>0.05226942613339288</v>
+        <v>5.2269426133392881E-2</v>
       </c>
       <c r="P81">
-        <v>0.3171312648545231</v>
+        <v>0.31713126485452309</v>
       </c>
       <c r="Q81">
-        <v>0.1235030271865201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>0.12350302718652011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>44075</v>
       </c>
       <c r="B82">
-        <v>-5.80311853189266E-12</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0.03353622162418758</v>
+        <v>3.3536221624187582E-2</v>
       </c>
       <c r="D82">
-        <v>0.07033723940300939</v>
+        <v>7.0337239403009386E-2</v>
       </c>
       <c r="E82">
-        <v>0.007629327770476313</v>
+        <v>7.6293277704763129E-3</v>
       </c>
       <c r="F82">
-        <v>0.005239136194224422</v>
+        <v>5.2391361942244223E-3</v>
       </c>
       <c r="G82">
-        <v>0.01081314518907392</v>
+        <v>1.0813145189073919E-2</v>
       </c>
       <c r="H82">
-        <v>0.01941267532721262</v>
+        <v>1.9412675327212619E-2</v>
       </c>
       <c r="I82">
-        <v>0.06077917654620969</v>
+        <v>6.0779176546209693E-2</v>
       </c>
       <c r="J82">
-        <v>0.03569521509472388</v>
+        <v>3.5695215094723877E-2</v>
       </c>
       <c r="K82">
         <v>0.2473365656457826</v>
       </c>
       <c r="L82">
-        <v>0.009936973714154945</v>
+        <v>9.9369737141549452E-3</v>
       </c>
       <c r="M82">
-        <v>0.00304522496829876</v>
+        <v>3.0452249682987602E-3</v>
       </c>
       <c r="N82">
-        <v>0.006927811887935478</v>
+        <v>6.9278118879354776E-3</v>
       </c>
       <c r="O82">
-        <v>0.05199001048452966</v>
+        <v>5.1990010484529663E-2</v>
       </c>
       <c r="P82">
         <v>0.3152477604666733</v>
       </c>
       <c r="Q82">
-        <v>0.1220735156893104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>0.12207351568931039</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>44105</v>
       </c>
       <c r="B83">
-        <v>-1.276684679467303E-11</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.03656036750396264</v>
+        <v>3.6560367503962639E-2</v>
       </c>
       <c r="D83">
-        <v>0.07670001588477952</v>
+        <v>7.6700015884779524E-2</v>
       </c>
       <c r="E83">
-        <v>0.008301114665594297</v>
+        <v>8.3011146655942968E-3</v>
       </c>
       <c r="F83">
-        <v>0.00569880040180853</v>
+        <v>5.6988004018085304E-3</v>
       </c>
       <c r="G83">
-        <v>0.01177495012526051</v>
+        <v>1.177495012526051E-2</v>
       </c>
       <c r="H83">
-        <v>0.0211679489467199</v>
+        <v>2.1167948946719899E-2</v>
       </c>
       <c r="I83">
-        <v>0.06631756924935892</v>
+        <v>6.6317569249358915E-2</v>
       </c>
       <c r="J83">
-        <v>0.03366484605187142</v>
+        <v>3.3664846051871422E-2</v>
       </c>
       <c r="K83">
-        <v>0.2331404727850463</v>
+        <v>0.23314047278504629</v>
       </c>
       <c r="L83">
-        <v>0.01005185721056444</v>
+        <v>1.005185721056444E-2</v>
       </c>
       <c r="M83">
-        <v>0.003079630105692679</v>
+        <v>3.0796301056926789E-3</v>
       </c>
       <c r="N83">
-        <v>0.007021061485373646</v>
+        <v>7.0210614853736461E-3</v>
       </c>
       <c r="O83">
-        <v>0.05272160117172874</v>
+        <v>5.2721601171728742E-2</v>
       </c>
       <c r="P83">
         <v>0.3196315321211376</v>
@@ -4827,263 +4886,263 @@
         <v>0.1141682323038677</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>44136</v>
       </c>
       <c r="B84">
-        <v>-2.546514543023005E-13</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0.03358885332167157</v>
+        <v>3.3588853321671573E-2</v>
       </c>
       <c r="D84">
-        <v>0.07045438675287813</v>
+        <v>7.0454386752878129E-2</v>
       </c>
       <c r="E84">
-        <v>0.00761601803304046</v>
+        <v>7.6160180330404597E-3</v>
       </c>
       <c r="F84">
-        <v>0.005227103383731769</v>
+        <v>5.2271033837317689E-3</v>
       </c>
       <c r="G84">
-        <v>0.0108086453648358</v>
+        <v>1.0808645364835801E-2</v>
       </c>
       <c r="H84">
-        <v>0.01944854722453887</v>
+        <v>1.944854722453887E-2</v>
       </c>
       <c r="I84">
-        <v>0.06094292606840281</v>
+        <v>6.0942926068402813E-2</v>
       </c>
       <c r="J84">
-        <v>0.03567567871182743</v>
+        <v>3.5675678711827433E-2</v>
       </c>
       <c r="K84">
         <v>0.2473558091074885</v>
       </c>
       <c r="L84">
-        <v>0.009910140482244728</v>
+        <v>9.9101404822447281E-3</v>
       </c>
       <c r="M84">
-        <v>0.003035577799569304</v>
+        <v>3.0355777995693038E-3</v>
       </c>
       <c r="N84">
-        <v>0.006926789067752241</v>
+        <v>6.9267890677522414E-3</v>
       </c>
       <c r="O84">
-        <v>0.05211134209826416</v>
+        <v>5.2111342098264159E-2</v>
       </c>
       <c r="P84">
-        <v>0.3155641722622201</v>
+        <v>0.31556417226222011</v>
       </c>
       <c r="Q84">
         <v>0.1213340103217887</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>44166</v>
       </c>
       <c r="B85">
-        <v>-4.247074954477138E-15</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0.02981673940370015</v>
+        <v>2.9816739403700152E-2</v>
       </c>
       <c r="D85">
-        <v>0.06227448305540385</v>
+        <v>6.2274483055403847E-2</v>
       </c>
       <c r="E85">
-        <v>0.006718885333180266</v>
+        <v>6.7188853331802663E-3</v>
       </c>
       <c r="F85">
-        <v>0.004609947572693115</v>
+        <v>4.6099475726931148E-3</v>
       </c>
       <c r="G85">
-        <v>0.009546981415465349</v>
+        <v>9.5469814154653491E-3</v>
       </c>
       <c r="H85">
-        <v>0.0172204903493106</v>
+        <v>1.7220490349310599E-2</v>
       </c>
       <c r="I85">
-        <v>0.05399491778845468</v>
+        <v>5.399491778845468E-2</v>
       </c>
       <c r="J85">
-        <v>0.03493138392869267</v>
+        <v>3.4931383928692668E-2</v>
       </c>
       <c r="K85">
-        <v>0.242729089162861</v>
+        <v>0.24272908916286101</v>
       </c>
       <c r="L85">
-        <v>0.01055790634757531</v>
+        <v>1.0557906347575309E-2</v>
       </c>
       <c r="M85">
-        <v>0.003233126815453397</v>
+        <v>3.2331268154533969E-3</v>
       </c>
       <c r="N85">
-        <v>0.007395431000802373</v>
+        <v>7.395431000802373E-3</v>
       </c>
       <c r="O85">
-        <v>0.05579987974211842</v>
+        <v>5.5799879742118419E-2</v>
       </c>
       <c r="P85">
-        <v>0.3377054397623718</v>
+        <v>0.33770543976237177</v>
       </c>
       <c r="Q85">
-        <v>0.1234652983219214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+        <v>0.12346529832192139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
       <c r="B86">
-        <v>-1.40645429311948E-15</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.02809268377101841</v>
+        <v>2.8092683771018409E-2</v>
       </c>
       <c r="D86">
-        <v>0.05867190171535753</v>
+        <v>5.8671901715357529E-2</v>
       </c>
       <c r="E86">
-        <v>0.006323463499499205</v>
+        <v>6.3234634994992047E-3</v>
       </c>
       <c r="F86">
-        <v>0.004337963565130928</v>
+        <v>4.3379635651309284E-3</v>
       </c>
       <c r="G86">
-        <v>0.008989435976686149</v>
+        <v>8.9894359766861491E-3</v>
       </c>
       <c r="H86">
-        <v>0.01622350031043272</v>
+        <v>1.622350031043272E-2</v>
       </c>
       <c r="I86">
-        <v>0.05089022213462695</v>
+        <v>5.0890222134626947E-2</v>
       </c>
       <c r="J86">
-        <v>0.03472491938984305</v>
+        <v>3.4724919389843047E-2</v>
       </c>
       <c r="K86">
-        <v>0.2412732385280753</v>
+        <v>0.24127323852807531</v>
       </c>
       <c r="L86">
-        <v>0.01083408982597734</v>
+        <v>1.083408982597734E-2</v>
       </c>
       <c r="M86">
-        <v>0.003317171194490791</v>
+        <v>3.3171711944907909E-3</v>
       </c>
       <c r="N86">
-        <v>0.00759841356314631</v>
+        <v>7.59841356314631E-3</v>
       </c>
       <c r="O86">
-        <v>0.05738261274152948</v>
+        <v>5.7382612741529483E-2</v>
       </c>
       <c r="P86">
-        <v>0.3473502291719689</v>
+        <v>0.34735022917196889</v>
       </c>
       <c r="Q86">
         <v>0.1239901546122183</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>44228</v>
       </c>
       <c r="B87">
-        <v>-9.68680086614959E-16</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0.03030003049794724</v>
+        <v>3.0300030497947241E-2</v>
       </c>
       <c r="D87">
-        <v>0.06330614908429191</v>
+        <v>6.3306149084291913E-2</v>
       </c>
       <c r="E87">
-        <v>0.006809113370241654</v>
+        <v>6.8091133702416536E-3</v>
       </c>
       <c r="F87">
-        <v>0.004669903770617763</v>
+        <v>4.6699037706177627E-3</v>
       </c>
       <c r="G87">
-        <v>0.009692445640635462</v>
+        <v>9.6924456406354623E-3</v>
       </c>
       <c r="H87">
-        <v>0.01750950771629248</v>
+        <v>1.7509507716292481E-2</v>
       </c>
       <c r="I87">
-        <v>0.05492520908445178</v>
+        <v>5.4925209084451782E-2</v>
       </c>
       <c r="J87">
-        <v>0.03498004185226308</v>
+        <v>3.4980041852263083E-2</v>
       </c>
       <c r="K87">
-        <v>0.2431864675123799</v>
+        <v>0.24318646751237991</v>
       </c>
       <c r="L87">
-        <v>0.01043228454557227</v>
+        <v>1.043228454557227E-2</v>
       </c>
       <c r="M87">
-        <v>0.003193414649018292</v>
+        <v>3.1934146490182921E-3</v>
       </c>
       <c r="N87">
-        <v>0.007323789944784646</v>
+        <v>7.3237899447846462E-3</v>
       </c>
       <c r="O87">
-        <v>0.05542573890107079</v>
+        <v>5.542573890107079E-2</v>
       </c>
       <c r="P87">
-        <v>0.3352292947207888</v>
+        <v>0.33522929472078877</v>
       </c>
       <c r="Q87">
         <v>0.1230166087096449</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>44256</v>
       </c>
       <c r="B88">
-        <v>-4.115618863948923E-12</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.03759421903394238</v>
+        <v>3.7594219033942382E-2</v>
       </c>
       <c r="D88">
-        <v>0.07860107906526283</v>
+        <v>7.8601079065262827E-2</v>
       </c>
       <c r="E88">
-        <v>0.008410443737038557</v>
+        <v>8.410443737038557E-3</v>
       </c>
       <c r="F88">
-        <v>0.005765665896176049</v>
+        <v>5.7656658961760488E-3</v>
       </c>
       <c r="G88">
-        <v>0.01197326573014081</v>
+        <v>1.1973265730140809E-2</v>
       </c>
       <c r="H88">
-        <v>0.02171843067527801</v>
+        <v>2.1718430675278011E-2</v>
       </c>
       <c r="I88">
-        <v>0.06832749206057183</v>
+        <v>6.8327492060571829E-2</v>
       </c>
       <c r="J88">
-        <v>0.03345294469523628</v>
+        <v>3.3452944695236277E-2</v>
       </c>
       <c r="K88">
-        <v>0.232801794764751</v>
+        <v>0.23280179476475099</v>
       </c>
       <c r="L88">
-        <v>0.009749336618207347</v>
+        <v>9.7493366182073472E-3</v>
       </c>
       <c r="M88">
-        <v>0.00298769814171993</v>
+        <v>2.9876981417199301E-3</v>
       </c>
       <c r="N88">
-        <v>0.006853908155958097</v>
+        <v>6.8539081559580968E-3</v>
       </c>
       <c r="O88">
-        <v>0.05203958600041288</v>
+        <v>5.2039586000412877E-2</v>
       </c>
       <c r="P88">
         <v>0.3149681846793902</v>
@@ -5092,528 +5151,528 @@
         <v>0.1147559507500294</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>44287</v>
       </c>
       <c r="B89">
-        <v>-7.4452464112599E-16</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.036882492275842</v>
+        <v>3.6882492275841998E-2</v>
       </c>
       <c r="D89">
-        <v>0.07723958938988372</v>
+        <v>7.723958938988372E-2</v>
       </c>
       <c r="E89">
-        <v>0.008230238275662072</v>
+        <v>8.2302382756620721E-3</v>
       </c>
       <c r="F89">
-        <v>0.005641123400648735</v>
+        <v>5.6411234006487352E-3</v>
       </c>
       <c r="G89">
-        <v>0.01171835936965728</v>
+        <v>1.171835936965728E-2</v>
       </c>
       <c r="H89">
-        <v>0.0213143533809936</v>
+        <v>2.1314353380993599E-2</v>
       </c>
       <c r="I89">
-        <v>0.06721800723876406</v>
+        <v>6.721800723876406E-2</v>
       </c>
       <c r="J89">
-        <v>0.03365768122777561</v>
+        <v>3.3657681227775613E-2</v>
       </c>
       <c r="K89">
         <v>0.2344127697446422</v>
       </c>
       <c r="L89">
-        <v>0.009814328023735924</v>
+        <v>9.8143280237359236E-3</v>
       </c>
       <c r="M89">
-        <v>0.00300753879788629</v>
+        <v>3.0075387978862902E-3</v>
       </c>
       <c r="N89">
-        <v>0.006901113250520795</v>
+        <v>6.9011132505207946E-3</v>
       </c>
       <c r="O89">
-        <v>0.05258795266838096</v>
+        <v>5.2587952668380962E-2</v>
       </c>
       <c r="P89">
         <v>0.3181065588039233</v>
       </c>
       <c r="Q89">
-        <v>0.113267894151684</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+        <v>0.11326789415168401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>44317</v>
       </c>
       <c r="B90">
-        <v>-1.075032344741864E-14</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0.03250769948285569</v>
+        <v>3.2507699482855687E-2</v>
       </c>
       <c r="D90">
-        <v>0.06809011958644332</v>
+        <v>6.8090119586443315E-2</v>
       </c>
       <c r="E90">
-        <v>0.007238806445238458</v>
+        <v>7.2388064452384576E-3</v>
       </c>
       <c r="F90">
-        <v>0.00495960498657787</v>
+        <v>4.95960498657787E-3</v>
       </c>
       <c r="G90">
-        <v>0.01031210998741708</v>
+        <v>1.031210998741708E-2</v>
       </c>
       <c r="H90">
-        <v>0.01878685390306755</v>
+        <v>1.878685390306755E-2</v>
       </c>
       <c r="I90">
-        <v>0.05930044374699803</v>
+        <v>5.9300443746998027E-2</v>
       </c>
       <c r="J90">
-        <v>0.03581164125239842</v>
+        <v>3.581164125239842E-2</v>
       </c>
       <c r="K90">
-        <v>0.24931350569998</v>
+        <v>0.24931350569998001</v>
       </c>
       <c r="L90">
-        <v>0.009846681576969569</v>
+        <v>9.8466815769695688E-3</v>
       </c>
       <c r="M90">
-        <v>0.00301755297768333</v>
+        <v>3.0175529776833299E-3</v>
       </c>
       <c r="N90">
-        <v>0.006922463672245553</v>
+        <v>6.9224636722455529E-3</v>
       </c>
       <c r="O90">
-        <v>0.05286569477012248</v>
+        <v>5.2865694770122477E-2</v>
       </c>
       <c r="P90">
-        <v>0.3196104576926408</v>
+        <v>0.31961045769264079</v>
       </c>
       <c r="Q90">
         <v>0.1214163642193727</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>44348</v>
       </c>
       <c r="B91">
-        <v>-3.443229854117611E-15</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.02934613266815895</v>
+        <v>2.9346132668158949E-2</v>
       </c>
       <c r="D91">
-        <v>0.06148420992746911</v>
+        <v>6.1484209927469113E-2</v>
       </c>
       <c r="E91">
-        <v>0.006524677674252252</v>
+        <v>6.5246776742522517E-3</v>
       </c>
       <c r="F91">
-        <v>0.004470069102373317</v>
+        <v>4.4700691023733174E-3</v>
       </c>
       <c r="G91">
-        <v>0.00929780922792448</v>
+        <v>9.2978092279244803E-3</v>
       </c>
       <c r="H91">
-        <v>0.01695850245359384</v>
+        <v>1.695850245359384E-2</v>
       </c>
       <c r="I91">
-        <v>0.05357928413748425</v>
+        <v>5.3579284137484251E-2</v>
       </c>
       <c r="J91">
-        <v>0.03491639048747814</v>
+        <v>3.491639048747814E-2</v>
       </c>
       <c r="K91">
-        <v>0.2423539458287746</v>
+        <v>0.24235394582877459</v>
       </c>
       <c r="L91">
-        <v>0.01051649041254565</v>
+        <v>1.051649041254565E-2</v>
       </c>
       <c r="M91">
-        <v>0.003222869286655448</v>
+        <v>3.2228692866554478E-3</v>
       </c>
       <c r="N91">
-        <v>0.007393947709473337</v>
+        <v>7.3939477094733374E-3</v>
       </c>
       <c r="O91">
-        <v>0.0565381293785454</v>
+        <v>5.6538129378545403E-2</v>
       </c>
       <c r="P91">
-        <v>0.3416086048971163</v>
+        <v>0.34160860489711631</v>
       </c>
       <c r="Q91">
         <v>0.1217889368081586</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>44378</v>
       </c>
       <c r="B92">
-        <v>-1.691595886393585E-15</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0.02942444835735538</v>
+        <v>2.942444835735538E-2</v>
       </c>
       <c r="D92">
-        <v>0.06165871181108298</v>
+        <v>6.1658711811082977E-2</v>
       </c>
       <c r="E92">
-        <v>0.006530077605947593</v>
+        <v>6.5300776059475929E-3</v>
       </c>
       <c r="F92">
-        <v>0.004473603795205479</v>
+        <v>4.4736037952054792E-3</v>
       </c>
       <c r="G92">
-        <v>0.009307635043954153</v>
+        <v>9.3076350439541527E-3</v>
       </c>
       <c r="H92">
-        <v>0.01700418311480298</v>
+        <v>1.7004183114802979E-2</v>
       </c>
       <c r="I92">
-        <v>0.05376766060852815</v>
+        <v>5.3767660608528153E-2</v>
       </c>
       <c r="J92">
-        <v>0.03506248039050692</v>
+        <v>3.5062480390506919E-2</v>
       </c>
       <c r="K92">
-        <v>0.2423939641787619</v>
+        <v>0.24239396417876191</v>
       </c>
       <c r="L92">
-        <v>0.01055248000981897</v>
+        <v>1.055248000981897E-2</v>
       </c>
       <c r="M92">
-        <v>0.003234841040920926</v>
+        <v>3.234841040920926E-3</v>
       </c>
       <c r="N92">
-        <v>0.007421018764447449</v>
+        <v>7.4210187644474486E-3</v>
       </c>
       <c r="O92">
-        <v>0.05686791014199548</v>
+        <v>5.6867910141995479E-2</v>
       </c>
       <c r="P92">
-        <v>0.3431210099467069</v>
+        <v>0.34312100994670691</v>
       </c>
       <c r="Q92">
-        <v>0.1191799751899666</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>0.11917997518996661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>44409</v>
       </c>
       <c r="B93">
-        <v>3.101805294058838E-15</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.03773035088473761</v>
+        <v>3.7730350884737612E-2</v>
       </c>
       <c r="D93">
-        <v>0.07905343131971035</v>
+        <v>7.9053431319710349E-2</v>
       </c>
       <c r="E93">
-        <v>0.008360654538987688</v>
+        <v>8.3606545389876882E-3</v>
       </c>
       <c r="F93">
-        <v>0.005725841960808631</v>
+        <v>5.7258419608086312E-3</v>
       </c>
       <c r="G93">
-        <v>0.01191694512610807</v>
+        <v>1.191694512610807E-2</v>
       </c>
       <c r="H93">
-        <v>0.02180608790395334</v>
+        <v>2.1806087903953341E-2</v>
       </c>
       <c r="I93">
-        <v>0.06897425267459022</v>
+        <v>6.8974252674590217E-2</v>
       </c>
       <c r="J93">
-        <v>0.03366387351882271</v>
+        <v>3.3663873518822711E-2</v>
       </c>
       <c r="K93">
         <v>0.2322821273149181</v>
       </c>
       <c r="L93">
-        <v>0.009639425226845738</v>
+        <v>9.6394252268457385E-3</v>
       </c>
       <c r="M93">
-        <v>0.002955876381176828</v>
+        <v>2.955876381176828E-3</v>
       </c>
       <c r="N93">
-        <v>0.006784050454142692</v>
+        <v>6.784050454142692E-3</v>
       </c>
       <c r="O93">
-        <v>0.05211823491906765</v>
+        <v>5.2118234919067648E-2</v>
       </c>
       <c r="P93">
-        <v>0.3149406551402049</v>
+        <v>0.31494065514020492</v>
       </c>
       <c r="Q93">
-        <v>0.1140481926359223</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+        <v>0.11404819263592229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>44440</v>
       </c>
       <c r="B94">
-        <v>-1.929869089238377E-12</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0.03776933581041548</v>
+        <v>3.7769335810415479E-2</v>
       </c>
       <c r="D94">
-        <v>0.07914709111546411</v>
+        <v>7.9147091115464113E-2</v>
       </c>
       <c r="E94">
-        <v>0.008356988737981599</v>
+        <v>8.3569887379815987E-3</v>
       </c>
       <c r="F94">
-        <v>0.005722572302779949</v>
+        <v>5.7225723027799491E-3</v>
       </c>
       <c r="G94">
-        <v>0.01191633276269801</v>
+        <v>1.1916332762698011E-2</v>
       </c>
       <c r="H94">
-        <v>0.02183102387832238</v>
+        <v>2.1831023878322382E-2</v>
       </c>
       <c r="I94">
-        <v>0.06908950924409767</v>
+        <v>6.9089509244097666E-2</v>
       </c>
       <c r="J94">
-        <v>0.0336797838866364</v>
+        <v>3.3679783886636401E-2</v>
       </c>
       <c r="K94">
-        <v>0.2319522122680339</v>
+        <v>0.23195221226803389</v>
       </c>
       <c r="L94">
-        <v>0.009626885672169735</v>
+        <v>9.6268856721697348E-3</v>
       </c>
       <c r="M94">
-        <v>0.002953013067464364</v>
+        <v>2.9530130674643639E-3</v>
       </c>
       <c r="N94">
-        <v>0.006776558397134044</v>
+        <v>6.7765583971340438E-3</v>
       </c>
       <c r="O94">
-        <v>0.05213829006690883</v>
+        <v>5.213829006690883E-2</v>
       </c>
       <c r="P94">
-        <v>0.3152396682493755</v>
+        <v>0.31523966824937549</v>
       </c>
       <c r="Q94">
         <v>0.1138007345424478</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>44470</v>
       </c>
       <c r="B95">
-        <v>-8.462912323481157E-12</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.03780078380967698</v>
+        <v>3.7800783809676983E-2</v>
       </c>
       <c r="D95">
-        <v>0.07921212672362292</v>
+        <v>7.9212126723622919E-2</v>
       </c>
       <c r="E95">
-        <v>0.008343780074480278</v>
+        <v>8.3437800744802781E-3</v>
       </c>
       <c r="F95">
-        <v>0.005711090122393053</v>
+        <v>5.7110901223930534E-3</v>
       </c>
       <c r="G95">
-        <v>0.01190704464645051</v>
+        <v>1.190704464645051E-2</v>
       </c>
       <c r="H95">
-        <v>0.02185346532004819</v>
+        <v>2.1853465320048188E-2</v>
       </c>
       <c r="I95">
-        <v>0.06919753036992786</v>
+        <v>6.9197530369927859E-2</v>
       </c>
       <c r="J95">
-        <v>0.0336361397639727</v>
+        <v>3.36361397639727E-2</v>
       </c>
       <c r="K95">
         <v>0.2319326170719746</v>
       </c>
       <c r="L95">
-        <v>0.009597860717183212</v>
+        <v>9.5978607171832118E-3</v>
       </c>
       <c r="M95">
-        <v>0.002944118682490829</v>
+        <v>2.944118682490829E-3</v>
       </c>
       <c r="N95">
-        <v>0.00676095518740168</v>
+        <v>6.76095518740168E-3</v>
       </c>
       <c r="O95">
-        <v>0.05218641695874558</v>
+        <v>5.2186416958745582E-2</v>
       </c>
       <c r="P95">
-        <v>0.3151454207681594</v>
+        <v>0.31514542076815938</v>
       </c>
       <c r="Q95">
         <v>0.1137706497919351</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>44501</v>
       </c>
       <c r="B96">
-        <v>-1.133030769916048E-15</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.02991161652693401</v>
+        <v>2.9911616526934009E-2</v>
       </c>
       <c r="D96">
-        <v>0.06270563917907573</v>
+        <v>6.2705639179075734E-2</v>
       </c>
       <c r="E96">
-        <v>0.006588227771254021</v>
+        <v>6.588227771254021E-3</v>
       </c>
       <c r="F96">
-        <v>0.00450913707377973</v>
+        <v>4.5091370737797296E-3</v>
       </c>
       <c r="G96">
-        <v>0.009407592095944842</v>
+        <v>9.4075920959448417E-3</v>
       </c>
       <c r="H96">
-        <v>0.01729139802461893</v>
+        <v>1.7291398024618931E-2</v>
       </c>
       <c r="I96">
-        <v>0.05482090074041222</v>
+        <v>5.4820900740412223E-2</v>
       </c>
       <c r="J96">
-        <v>0.03499188630614911</v>
+        <v>3.4991886306149113E-2</v>
       </c>
       <c r="K96">
-        <v>0.2414335134098101</v>
+        <v>0.24143351340981009</v>
       </c>
       <c r="L96">
-        <v>0.01039812056241328</v>
+        <v>1.0398120562413279E-2</v>
       </c>
       <c r="M96">
-        <v>0.003190039700173081</v>
+        <v>3.190039700173081E-3</v>
       </c>
       <c r="N96">
-        <v>0.007325150984553175</v>
+        <v>7.325150984553175E-3</v>
       </c>
       <c r="O96">
-        <v>0.05664615660651486</v>
+        <v>5.6646156606514862E-2</v>
       </c>
       <c r="P96">
-        <v>0.3417339948355294</v>
+        <v>0.34173399483552941</v>
       </c>
       <c r="Q96">
-        <v>0.1190466261828386</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+        <v>0.11904662618283859</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>44531</v>
       </c>
       <c r="B97">
-        <v>-3.739018162030142E-15</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.02999250367000865</v>
+        <v>2.9992503670008649E-2</v>
       </c>
       <c r="D97">
-        <v>0.062859601730894</v>
+        <v>6.2859601730893999E-2</v>
       </c>
       <c r="E97">
-        <v>0.006582466324175889</v>
+        <v>6.5824663241758887E-3</v>
       </c>
       <c r="F97">
-        <v>0.004505566282318835</v>
+        <v>4.5055662823188349E-3</v>
       </c>
       <c r="G97">
-        <v>0.009402110555855757</v>
+        <v>9.4021105558557572E-3</v>
       </c>
       <c r="H97">
-        <v>0.01731687359434124</v>
+        <v>1.7316873594341239E-2</v>
       </c>
       <c r="I97">
-        <v>0.05504508864421093</v>
+        <v>5.5045088644210927E-2</v>
       </c>
       <c r="J97">
-        <v>0.03489269550139116</v>
+        <v>3.4892695501391159E-2</v>
       </c>
       <c r="K97">
         <v>0.2409524963606153</v>
       </c>
       <c r="L97">
-        <v>0.01037669044774048</v>
+        <v>1.0376690447740479E-2</v>
       </c>
       <c r="M97">
-        <v>0.003192118028050216</v>
+        <v>3.1921180280502161E-3</v>
       </c>
       <c r="N97">
-        <v>0.007317330690407954</v>
+        <v>7.3173306904079543E-3</v>
       </c>
       <c r="O97">
-        <v>0.05636271379504808</v>
+        <v>5.6362713795048078E-2</v>
       </c>
       <c r="P97">
-        <v>0.3428354452376364</v>
+        <v>0.34283544523763643</v>
       </c>
       <c r="Q97">
         <v>0.1183662991373093</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>44562</v>
       </c>
       <c r="B98">
-        <v>2.749121025199191E-15</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.03318602381370208</v>
+        <v>3.318602381370208E-2</v>
       </c>
       <c r="D98">
-        <v>0.06956626010683892</v>
+        <v>6.9566260106838917E-2</v>
       </c>
       <c r="E98">
-        <v>0.007271057660376831</v>
+        <v>7.2710576603768314E-3</v>
       </c>
       <c r="F98">
-        <v>0.004975448382306377</v>
+        <v>4.975448382306377E-3</v>
       </c>
       <c r="G98">
-        <v>0.01039492543246649</v>
+        <v>1.0394925432466491E-2</v>
       </c>
       <c r="H98">
-        <v>0.01916413512963584</v>
+        <v>1.9164135129635839E-2</v>
       </c>
       <c r="I98">
-        <v>0.06094671731575546</v>
+        <v>6.0946717315755461E-2</v>
       </c>
       <c r="J98">
-        <v>0.03584053016511492</v>
+        <v>3.5840530165114917E-2</v>
       </c>
       <c r="K98">
-        <v>0.2472558982922776</v>
+        <v>0.24725589829227759</v>
       </c>
       <c r="L98">
-        <v>0.009681512184803809</v>
+        <v>9.6815121848038092E-3</v>
       </c>
       <c r="M98">
-        <v>0.002979081643501867</v>
+        <v>2.979081643501867E-3</v>
       </c>
       <c r="N98">
-        <v>0.006833095270671188</v>
+        <v>6.8330952706711877E-3</v>
       </c>
       <c r="O98">
-        <v>0.05264151204370744</v>
+        <v>5.2641512043707442E-2</v>
       </c>
       <c r="P98">
         <v>0.3202228186406999</v>
@@ -5622,590 +5681,592 @@
         <v>0.1190409839181386</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>44593</v>
       </c>
       <c r="B99">
-        <v>-1.435318166140813E-14</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0.03358169973121054</v>
+        <v>3.3581699731210543E-2</v>
       </c>
       <c r="D99">
-        <v>0.07032019510814182</v>
+        <v>7.0320195108141817E-2</v>
       </c>
       <c r="E99">
-        <v>0.007335776197119326</v>
+        <v>7.3357761971193257E-3</v>
       </c>
       <c r="F99">
-        <v>0.005020561829462839</v>
+        <v>5.0205618294628393E-3</v>
       </c>
       <c r="G99">
-        <v>0.01048687893136009</v>
+        <v>1.048687893136009E-2</v>
       </c>
       <c r="H99">
-        <v>0.01937451108127834</v>
+        <v>1.9374511081278339E-2</v>
       </c>
       <c r="I99">
-        <v>0.06168416680013176</v>
+        <v>6.1684166800131758E-2</v>
       </c>
       <c r="J99">
-        <v>0.03567081079569922</v>
+        <v>3.5670810795699219E-2</v>
       </c>
       <c r="K99">
-        <v>0.2462378091698386</v>
+        <v>0.24623780916983859</v>
       </c>
       <c r="L99">
-        <v>0.009655737210903986</v>
+        <v>9.6557372109039863E-3</v>
       </c>
       <c r="M99">
-        <v>0.002977549600791087</v>
+        <v>2.9775496007910869E-3</v>
       </c>
       <c r="N99">
-        <v>0.006824124333141741</v>
+        <v>6.8241243331417407E-3</v>
       </c>
       <c r="O99">
-        <v>0.05234433135110537</v>
+        <v>5.2344331351105368E-2</v>
       </c>
       <c r="P99">
-        <v>0.3183974273348312</v>
+        <v>0.31839742733483117</v>
       </c>
       <c r="Q99">
         <v>0.1200884205249985</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>44621</v>
       </c>
       <c r="B100">
-        <v>-4.695462156101417E-15</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0.031104404194535</v>
+        <v>3.1104404194535001E-2</v>
       </c>
       <c r="D100">
-        <v>0.06507808767582619</v>
+        <v>6.5078087675826193E-2</v>
       </c>
       <c r="E100">
-        <v>0.006766314181956873</v>
+        <v>6.766314181956873E-3</v>
       </c>
       <c r="F100">
-        <v>0.004634400907802192</v>
+        <v>4.6344009078021923E-3</v>
       </c>
       <c r="G100">
-        <v>0.009672499097949094</v>
+        <v>9.6724990979490943E-3</v>
       </c>
       <c r="H100">
-        <v>0.01788806055526332</v>
+        <v>1.7888060555263319E-2</v>
       </c>
       <c r="I100">
-        <v>0.05722121712738972</v>
+        <v>5.7221217127389722E-2</v>
       </c>
       <c r="J100">
-        <v>0.03473388690158301</v>
+        <v>3.4733886901583008E-2</v>
       </c>
       <c r="K100">
-        <v>0.2384889736733243</v>
+        <v>0.23848897367332431</v>
       </c>
       <c r="L100">
-        <v>0.01030799544575066</v>
+        <v>1.0307995445750661E-2</v>
       </c>
       <c r="M100">
-        <v>0.003199320476081204</v>
+        <v>3.1993204760812038E-3</v>
       </c>
       <c r="N100">
-        <v>0.007307112059076004</v>
+        <v>7.3071120590760038E-3</v>
       </c>
       <c r="O100">
-        <v>0.05453150697442639</v>
+        <v>5.4531506974426387E-2</v>
       </c>
       <c r="P100">
-        <v>0.337316073877979</v>
+        <v>0.33731607387797902</v>
       </c>
       <c r="Q100">
-        <v>0.1217501468510618</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+        <v>0.12175014685106179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>44652</v>
       </c>
       <c r="B101">
-        <v>-1.194564075259837E-15</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.03213815693261398</v>
+        <v>3.213815693261398E-2</v>
       </c>
       <c r="D101">
-        <v>0.06736098655030101</v>
+        <v>6.7360986550301011E-2</v>
       </c>
       <c r="E101">
-        <v>0.006954298850594169</v>
+        <v>6.9542988505941691E-3</v>
       </c>
       <c r="F101">
-        <v>0.00477673790147451</v>
+        <v>4.7767379014745101E-3</v>
       </c>
       <c r="G101">
-        <v>0.00993527879864322</v>
+        <v>9.9352787986432198E-3</v>
       </c>
       <c r="H101">
-        <v>0.01843524055937602</v>
+        <v>1.843524055937602E-2</v>
       </c>
       <c r="I101">
-        <v>0.05939758737282708</v>
+        <v>5.9397587372827083E-2</v>
       </c>
       <c r="J101">
-        <v>0.0349362104983283</v>
+        <v>3.4936210498328298E-2</v>
       </c>
       <c r="K101">
         <v>0.2356351760526412</v>
       </c>
       <c r="L101">
-        <v>0.01008652735511242</v>
+        <v>1.008652735511242E-2</v>
       </c>
       <c r="M101">
-        <v>0.003156760214135015</v>
+        <v>3.156760214135015E-3</v>
       </c>
       <c r="N101">
-        <v>0.007165908869508411</v>
+        <v>7.1659088695084109E-3</v>
       </c>
       <c r="O101">
-        <v>0.05252151749681978</v>
+        <v>5.2521517496819783E-2</v>
       </c>
       <c r="P101">
-        <v>0.3330628536314921</v>
+        <v>0.33306285363149207</v>
       </c>
       <c r="Q101">
         <v>0.1244367589161333</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>44682</v>
       </c>
       <c r="B102">
-        <v>-7.325220169235174E-18</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0.03758928029488122</v>
+        <v>3.7589280294881219E-2</v>
       </c>
       <c r="D102">
-        <v>0.07898519068768783</v>
+        <v>7.8985190687687834E-2</v>
       </c>
       <c r="E102">
-        <v>0.008086759916983951</v>
+        <v>8.0867599169839512E-3</v>
       </c>
       <c r="F102">
-        <v>0.005556729360613256</v>
+        <v>5.5567293606132561E-3</v>
       </c>
       <c r="G102">
-        <v>0.01155529598303179</v>
+        <v>1.155529598303179E-2</v>
       </c>
       <c r="H102">
-        <v>0.02153316849075831</v>
+        <v>2.1533168490758311E-2</v>
       </c>
       <c r="I102">
-        <v>0.06984251723118175</v>
+        <v>6.9842517231181747E-2</v>
       </c>
       <c r="J102">
-        <v>0.0346483066105548</v>
+        <v>3.4648306610554798E-2</v>
       </c>
       <c r="K102">
         <v>0.2332227063902951</v>
       </c>
       <c r="L102">
-        <v>0.009536192474534032</v>
+        <v>9.5361924745340325E-3</v>
       </c>
       <c r="M102">
-        <v>0.003000236309213144</v>
+        <v>3.0002363092131441E-3</v>
       </c>
       <c r="N102">
-        <v>0.006776465399777921</v>
+        <v>6.7764653997779206E-3</v>
       </c>
       <c r="O102">
-        <v>0.04904708558189263</v>
+        <v>4.9047085581892629E-2</v>
       </c>
       <c r="P102">
-        <v>0.3151253566230633</v>
+        <v>0.31512535662306329</v>
       </c>
       <c r="Q102">
         <v>0.1154947086455308</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>44713</v>
       </c>
       <c r="B103">
-        <v>-4.361744334583649E-16</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.03133865279100665</v>
+        <v>3.1338652791006651E-2</v>
       </c>
       <c r="D103">
-        <v>0.06579672447279289</v>
+        <v>6.5796724472792889E-2</v>
       </c>
       <c r="E103">
-        <v>0.006701649875924532</v>
+        <v>6.7016498759245322E-3</v>
       </c>
       <c r="F103">
-        <v>0.00459464545246896</v>
+        <v>4.5946454524689604E-3</v>
       </c>
       <c r="G103">
-        <v>0.009576877498969703</v>
+        <v>9.5768774989697034E-3</v>
       </c>
       <c r="H103">
-        <v>0.0178850190918411</v>
+        <v>1.7885019091841099E-2</v>
       </c>
       <c r="I103">
-        <v>0.05837718534459525</v>
+        <v>5.8377185344595253E-2</v>
       </c>
       <c r="J103">
-        <v>0.03515826678873996</v>
+        <v>3.5158266788739963E-2</v>
       </c>
       <c r="K103">
-        <v>0.2372648013115438</v>
+        <v>0.23726480131154379</v>
       </c>
       <c r="L103">
-        <v>0.01009758367447946</v>
+        <v>1.009758367447946E-2</v>
       </c>
       <c r="M103">
-        <v>0.003188106351741237</v>
+        <v>3.1881063517412368E-3</v>
       </c>
       <c r="N103">
-        <v>0.007179516619214159</v>
+        <v>7.1795166192141586E-3</v>
       </c>
       <c r="O103">
-        <v>0.05142464989705847</v>
+        <v>5.1424649897058472E-2</v>
       </c>
       <c r="P103">
-        <v>0.3332018908616147</v>
+        <v>0.33320189086161472</v>
       </c>
       <c r="Q103">
-        <v>0.1282144299680096</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+        <v>0.12821442996800961</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>44743</v>
       </c>
       <c r="B104">
-        <v>-6.987032323264685E-16</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.03147403778748475</v>
+        <v>3.1474037787484747E-2</v>
       </c>
       <c r="D104">
-        <v>0.06549518923289961</v>
+        <v>6.5495189232899612E-2</v>
       </c>
       <c r="E104">
-        <v>0.006652581898809616</v>
+        <v>6.6525818988096156E-3</v>
       </c>
       <c r="F104">
-        <v>0.004570248647600917</v>
+        <v>4.5702486476009172E-3</v>
       </c>
       <c r="G104">
-        <v>0.009458175078469694</v>
+        <v>9.4581750784696935E-3</v>
       </c>
       <c r="H104">
-        <v>0.01772981173275797</v>
+        <v>1.772981173275797E-2</v>
       </c>
       <c r="I104">
-        <v>0.05855840966274616</v>
+        <v>5.8558409662746162E-2</v>
       </c>
       <c r="J104">
-        <v>0.03514415209710112</v>
+        <v>3.5144152097101117E-2</v>
       </c>
       <c r="K104">
-        <v>0.2353468729414535</v>
+        <v>0.23534687294145351</v>
       </c>
       <c r="L104">
-        <v>0.01032768165428454</v>
+        <v>1.032768165428454E-2</v>
       </c>
       <c r="M104">
-        <v>0.003295127298289098</v>
+        <v>3.295127298289098E-3</v>
       </c>
       <c r="N104">
-        <v>0.007340116991313456</v>
+        <v>7.3401169913134556E-3</v>
       </c>
       <c r="O104">
-        <v>0.05088276755299714</v>
+        <v>5.0882767552997137E-2</v>
       </c>
       <c r="P104">
-        <v>0.332650226270268</v>
+        <v>0.33265022627026802</v>
       </c>
       <c r="Q104">
-        <v>0.1310746011535246</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+        <v>0.13107460115352459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>44774</v>
       </c>
       <c r="B105">
-        <v>-4.293689897814188E-15</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.03203749354795621</v>
+        <v>3.2037493547956208E-2</v>
       </c>
       <c r="D105">
-        <v>0.06663559739895875</v>
+        <v>6.6635597398958746E-2</v>
       </c>
       <c r="E105">
-        <v>0.006747765030452483</v>
+        <v>6.7477650304524827E-3</v>
       </c>
       <c r="F105">
-        <v>0.004645483428084996</v>
+        <v>4.645483428084996E-3</v>
       </c>
       <c r="G105">
-        <v>0.009566248841410521</v>
+        <v>9.5662488414105205E-3</v>
       </c>
       <c r="H105">
-        <v>0.0179740502940916</v>
+        <v>1.79740502940916E-2</v>
       </c>
       <c r="I105">
-        <v>0.05973954335287537</v>
+        <v>5.9739543352875367E-2</v>
       </c>
       <c r="J105">
-        <v>0.03532160119721695</v>
+        <v>3.5321601197216952E-2</v>
       </c>
       <c r="K105">
         <v>0.2337336922507576</v>
       </c>
       <c r="L105">
-        <v>0.01023551268713501</v>
+        <v>1.0235512687135011E-2</v>
       </c>
       <c r="M105">
-        <v>0.003283790173660144</v>
+        <v>3.283790173660144E-3</v>
       </c>
       <c r="N105">
-        <v>0.007268451847730538</v>
+        <v>7.2684518477305381E-3</v>
       </c>
       <c r="O105">
-        <v>0.04987625275693713</v>
+        <v>4.9876252756937127E-2</v>
       </c>
       <c r="P105">
-        <v>0.331035220466101</v>
+        <v>0.33103522046610101</v>
       </c>
       <c r="Q105">
-        <v>0.1318992967266363</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
+        <v>0.13189929672663631</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>44805</v>
       </c>
       <c r="B106">
-        <v>-1.941089626959121E-15</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0.03217898329116725</v>
+        <v>3.2178983291167251E-2</v>
       </c>
       <c r="D106">
-        <v>0.0669943384083341</v>
+        <v>6.6994338408334103E-2</v>
       </c>
       <c r="E106">
-        <v>0.006725888042268007</v>
+        <v>6.725888042268007E-3</v>
       </c>
       <c r="F106">
-        <v>0.004643329499142668</v>
+        <v>4.643329499142668E-3</v>
       </c>
       <c r="G106">
-        <v>0.009518293675697667</v>
+        <v>9.5182936756976668E-3</v>
       </c>
       <c r="H106">
-        <v>0.01796002980983614</v>
+        <v>1.7960029809836141E-2</v>
       </c>
       <c r="I106">
-        <v>0.06032578067255687</v>
+        <v>6.0325780672556867E-2</v>
       </c>
       <c r="J106">
-        <v>0.03547055403403155</v>
+        <v>3.547055403403155E-2</v>
       </c>
       <c r="K106">
         <v>0.2337848737317266</v>
       </c>
       <c r="L106">
-        <v>0.0101599611983562</v>
+        <v>1.01599611983562E-2</v>
       </c>
       <c r="M106">
-        <v>0.003273613735824577</v>
+        <v>3.2736137358245769E-3</v>
       </c>
       <c r="N106">
-        <v>0.007216434983602804</v>
+        <v>7.2164349836028041E-3</v>
       </c>
       <c r="O106">
-        <v>0.04915347307847955</v>
+        <v>4.9153473078479552E-2</v>
       </c>
       <c r="P106">
-        <v>0.3306245974674006</v>
+        <v>0.33062459746740058</v>
       </c>
       <c r="Q106">
         <v>0.1319698483715773</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>44835</v>
       </c>
       <c r="B107">
-        <v>-1.737506519964211E-15</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.0325587709522649</v>
+        <v>3.25587709522649E-2</v>
       </c>
       <c r="D107">
-        <v>0.06763785220155855</v>
+        <v>6.7637852201558546E-2</v>
       </c>
       <c r="E107">
-        <v>0.006728942824275635</v>
+        <v>6.7289428242756346E-3</v>
       </c>
       <c r="F107">
-        <v>0.004650983016518001</v>
+        <v>4.6509830165180014E-3</v>
       </c>
       <c r="G107">
-        <v>0.009493387040330578</v>
+        <v>9.4933870403305781E-3</v>
       </c>
       <c r="H107">
-        <v>0.01799932941529666</v>
+        <v>1.799932941529666E-2</v>
       </c>
       <c r="I107">
-        <v>0.06132398085740257</v>
+        <v>6.1323980857402573E-2</v>
       </c>
       <c r="J107">
-        <v>0.03492657017588278</v>
+        <v>3.4926570175882778E-2</v>
       </c>
       <c r="K107">
-        <v>0.2280434114517307</v>
+        <v>0.22804341145173071</v>
       </c>
       <c r="L107">
-        <v>0.01013010312294896</v>
+        <v>1.013010312294896E-2</v>
       </c>
       <c r="M107">
-        <v>0.00328390961583477</v>
+        <v>3.2839096158347701E-3</v>
       </c>
       <c r="N107">
-        <v>0.007179206967575183</v>
+        <v>7.1792069675751828E-3</v>
       </c>
       <c r="O107">
-        <v>0.04854058729362992</v>
+        <v>4.8540587293629922E-2</v>
       </c>
       <c r="P107">
         <v>0.3322307775350089</v>
       </c>
       <c r="Q107">
-        <v>0.1352721875297438</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
+        <v>0.13527218752974379</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>44866</v>
       </c>
       <c r="B108">
-        <v>-1.531038683400052E-15</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0.03262405019851567</v>
+        <v>3.2624050198515671E-2</v>
       </c>
       <c r="D108">
-        <v>0.06782219487060144</v>
+        <v>6.782219487060144E-2</v>
       </c>
       <c r="E108">
-        <v>0.006701368476978795</v>
+        <v>6.7013684769787951E-3</v>
       </c>
       <c r="F108">
-        <v>0.004634214186132039</v>
+        <v>4.6342141861320388E-3</v>
       </c>
       <c r="G108">
-        <v>0.009430884887022591</v>
+        <v>9.4308848870225913E-3</v>
       </c>
       <c r="H108">
-        <v>0.01794274101853215</v>
+        <v>1.794274101853215E-2</v>
       </c>
       <c r="I108">
-        <v>0.06173703650045154</v>
+        <v>6.1737036500451543E-2</v>
       </c>
       <c r="J108">
-        <v>0.0353624389735622</v>
+        <v>3.5362438973562199E-2</v>
       </c>
       <c r="K108">
-        <v>0.2293998263076482</v>
+        <v>0.22939982630764821</v>
       </c>
       <c r="L108">
-        <v>0.01003606451666123</v>
+        <v>1.003606451666123E-2</v>
       </c>
       <c r="M108">
-        <v>0.003265125849773693</v>
+        <v>3.2651258497736931E-3</v>
       </c>
       <c r="N108">
-        <v>0.007106699217247053</v>
+        <v>7.106699217247053E-3</v>
       </c>
       <c r="O108">
-        <v>0.04771847725475771</v>
+        <v>4.771847725475771E-2</v>
       </c>
       <c r="P108">
-        <v>0.3303758651743868</v>
+        <v>0.33037586517438677</v>
       </c>
       <c r="Q108">
         <v>0.1358430125677306</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>44896</v>
       </c>
       <c r="B109">
-        <v>-5.132636443680768E-15</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0.03317013303527378</v>
+        <v>3.3170133035273781E-2</v>
       </c>
       <c r="D109">
-        <v>0.06903135709668576</v>
+        <v>6.9031357096685758E-2</v>
       </c>
       <c r="E109">
-        <v>0.006750841763597323</v>
+        <v>6.750841763597323E-3</v>
       </c>
       <c r="F109">
-        <v>0.004669386864285525</v>
+        <v>4.6693868642855253E-3</v>
       </c>
       <c r="G109">
-        <v>0.009479796501614072</v>
+        <v>9.4797965016140719E-3</v>
       </c>
       <c r="H109">
-        <v>0.01812866031206487</v>
+        <v>1.8128660312064868E-2</v>
       </c>
       <c r="I109">
-        <v>0.06317280469039777</v>
+        <v>6.3172804690397766E-2</v>
       </c>
       <c r="J109">
-        <v>0.03573462381482016</v>
+        <v>3.5734623814820163E-2</v>
       </c>
       <c r="K109">
         <v>0.2313342210869721</v>
       </c>
       <c r="L109">
-        <v>0.009898763645473957</v>
+        <v>9.8987636454739569E-3</v>
       </c>
       <c r="M109">
-        <v>0.00323197522984008</v>
+        <v>3.2319752298400799E-3</v>
       </c>
       <c r="N109">
-        <v>0.007010463483689015</v>
+        <v>7.0104634836890148E-3</v>
       </c>
       <c r="O109">
-        <v>0.04661349110777727</v>
+        <v>4.6613491107777273E-2</v>
       </c>
       <c r="P109">
-        <v>0.3257375300192589</v>
+        <v>0.32573753001925893</v>
       </c>
       <c r="Q109">
         <v>0.1360359513482528</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>